--- a/Data/MHV-1_Trial-2_Stage-1_Decoded_JYI.xlsx
+++ b/Data/MHV-1_Trial-2_Stage-1_Decoded_JYI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\00_CS_Virus_Testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B457A4BF-8661-452F-967B-CC71258C3176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA64357-A8EF-4476-B658-1F0805340536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE0797FF-F582-CE41-81BB-7C6997E8DDC1}"/>
+    <workbookView xWindow="5445" yWindow="5295" windowWidth="21600" windowHeight="9420" xr2:uid="{BE0797FF-F582-CE41-81BB-7C6997E8DDC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,25 @@
     <t>N</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>2,3,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,9,11,</t>
+  </si>
+  <si>
+    <t>2,3,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,9,</t>
   </si>
   <si>
     <t>2,5,31,</t>
@@ -202,24 +220,6 @@
   </si>
   <si>
     <t>1,3,6,</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>2,3,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,6,9,11,</t>
-  </si>
-  <si>
-    <t>2,3,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,6,9,</t>
   </si>
   <si>
     <t>2,5,</t>
@@ -250,7 +250,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,13 +267,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -313,7 +306,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA77264-70DF-B347-B246-8B3A8D5D0E9A}">
   <dimension ref="A1:AR232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L16" workbookViewId="0">
-      <selection activeCell="Y27" sqref="Y27"/>
+    <sheetView tabSelected="1" topLeftCell="U221" workbookViewId="0">
+      <selection activeCell="AE232" sqref="AE232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1383,13 +1375,13 @@
         <v>47</v>
       </c>
       <c r="G3" s="4">
-        <v>3.2519921877210028E-12</v>
+        <v>7.9242840120978409E-12</v>
       </c>
       <c r="H3" s="4">
-        <v>4.2331912914540465E-12</v>
+        <v>1.0667051986190147E-11</v>
       </c>
       <c r="I3" s="4">
-        <v>1.4094912103210506E-8</v>
+        <v>-6.7305483246074246E-11</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
@@ -1413,13 +1405,13 @@
         <v>47</v>
       </c>
       <c r="R3" s="4">
-        <v>3.8061330351991408E-12</v>
+        <v>7.1387311733955759E-12</v>
       </c>
       <c r="S3" s="4">
-        <v>4.9404024430196838E-12</v>
+        <v>9.3661843122478178E-12</v>
       </c>
       <c r="T3" s="4">
-        <v>9.0314737561599375E-9</v>
+        <v>-2.3932325378062873E-13</v>
       </c>
       <c r="U3" s="4">
         <v>0</v>
@@ -1443,13 +1435,13 @@
         <v>47</v>
       </c>
       <c r="AC3" s="4">
-        <v>1.1156208366473037E-11</v>
+        <v>7.6739487961779499E-12</v>
       </c>
       <c r="AD3" s="4">
-        <v>1.3262724776175528E-11</v>
+        <v>8.4728745452927779E-12</v>
       </c>
       <c r="AE3" s="4">
-        <v>4.5225871741952795E-9</v>
+        <v>-3.1074346670024546E-13</v>
       </c>
       <c r="AF3" s="4">
         <v>0</v>
@@ -1496,13 +1488,13 @@
         <v>47</v>
       </c>
       <c r="G4" s="4">
-        <v>3.2519921837358534E-12</v>
+        <v>7.924284706498491E-12</v>
       </c>
       <c r="H4" s="4">
-        <v>4.233191297382185E-12</v>
+        <v>1.0667053380924387E-11</v>
       </c>
       <c r="I4" s="4">
-        <v>1.4094912103209166E-8</v>
+        <v>3.3676641225205195E-11</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
@@ -1526,13 +1518,13 @@
         <v>47</v>
       </c>
       <c r="R4" s="4">
-        <v>3.8061330355191046E-12</v>
+        <v>7.1387311742083842E-12</v>
       </c>
       <c r="S4" s="4">
-        <v>4.9404024433142635E-12</v>
+        <v>9.3661843125558909E-12</v>
       </c>
       <c r="T4" s="4">
-        <v>9.0314737561594544E-9</v>
+        <v>8.3165679416194269E-14</v>
       </c>
       <c r="U4" s="4">
         <v>0</v>
@@ -1553,16 +1545,16 @@
         <v>2</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC4" s="4">
-        <v>1.2683314729112891E-10</v>
+        <v>3.1224532180768977E-11</v>
       </c>
       <c r="AD4" s="4">
-        <v>7.1407242550421829E-4</v>
+        <v>1.9396094497740211E-3</v>
       </c>
       <c r="AE4" s="4">
-        <v>9.1642367177313861E-4</v>
+        <v>1.3444326786678951E-3</v>
       </c>
       <c r="AF4" s="4">
         <v>0</v>
@@ -1606,19 +1598,19 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.192678163750023</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.62599498294337663</v>
+        <v>48</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7.0934985815681043E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.7003677729449087</v>
       </c>
       <c r="I5" s="2">
-        <v>1.3933113516806486</v>
+        <v>1.393314842749021</v>
       </c>
       <c r="J5" s="2">
-        <v>1.3850814408213963</v>
+        <v>1.3850804714343554</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>14</v>
@@ -1636,19 +1628,19 @@
         <v>3</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" s="9">
-        <v>1.4260850055867851E-3</v>
-      </c>
-      <c r="S5" s="9">
-        <v>2.8645240823673172E-3</v>
+        <v>48</v>
+      </c>
+      <c r="R5" s="2">
+        <v>5.2501726629638904E-4</v>
+      </c>
+      <c r="S5" s="2">
+        <v>7.7808031859895694E-3</v>
       </c>
       <c r="T5" s="2">
-        <v>8.4953225303106891E-3</v>
+        <v>8.495380756102849E-3</v>
       </c>
       <c r="U5" s="2">
-        <v>7.6938569718188205E-3</v>
+        <v>7.6938923816729978E-3</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>14</v>
@@ -1669,13 +1661,13 @@
         <v>47</v>
       </c>
       <c r="AC5" s="4">
-        <v>1.1156208373953438E-11</v>
+        <v>7.6739487997611929E-12</v>
       </c>
       <c r="AD5" s="4">
-        <v>1.3262724773842259E-11</v>
+        <v>8.4728745445816094E-12</v>
       </c>
       <c r="AE5" s="4">
-        <v>4.5225871741952216E-9</v>
+        <v>3.6846451226630654E-14</v>
       </c>
       <c r="AF5" s="4">
         <v>0</v>
@@ -1710,13 +1702,13 @@
         <v>47</v>
       </c>
       <c r="G6" s="4">
-        <v>1.6959229958811866E-12</v>
+        <v>3.9433381707997192E-12</v>
       </c>
       <c r="H6" s="4">
-        <v>1.9133785767125378E-12</v>
+        <v>4.6770506226134188E-12</v>
       </c>
       <c r="I6" s="4">
-        <v>7.0277195653330219E-9</v>
+        <v>1.6813580405771268E-11</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
@@ -1740,13 +1732,13 @@
         <v>47</v>
       </c>
       <c r="R6" s="4">
-        <v>3.8061330356327127E-12</v>
+        <v>7.138731174352417E-12</v>
       </c>
       <c r="S6" s="4">
-        <v>4.9404024431834138E-12</v>
+        <v>9.3661843122419241E-12</v>
       </c>
       <c r="T6" s="4">
-        <v>9.0314737561579655E-9</v>
+        <v>8.3165679414901698E-14</v>
       </c>
       <c r="U6" s="4">
         <v>0</v>
@@ -1770,13 +1762,13 @@
         <v>47</v>
       </c>
       <c r="AC6" s="4">
-        <v>1.1156208374317812E-11</v>
+        <v>7.6739487997475445E-12</v>
       </c>
       <c r="AD6" s="4">
-        <v>1.3262724774949233E-11</v>
+        <v>8.4728745447381533E-12</v>
       </c>
       <c r="AE6" s="4">
-        <v>4.52258717419566E-9</v>
+        <v>3.6846451225975937E-14</v>
       </c>
       <c r="AF6" s="4">
         <v>0</v>
@@ -1814,13 +1806,13 @@
         <v>47</v>
       </c>
       <c r="G7" s="4">
-        <v>3.4299941943911771E-12</v>
+        <v>8.3707088784313541E-12</v>
       </c>
       <c r="H7" s="4">
-        <v>3.8823134778159383E-12</v>
+        <v>9.9395399851656396E-12</v>
       </c>
       <c r="I7" s="4">
-        <v>1.4094911740774976E-8</v>
+        <v>3.366796988524048E-11</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
@@ -1832,13 +1824,13 @@
         <v>47</v>
       </c>
       <c r="R7" s="4">
-        <v>2.1310462386622794E-12</v>
+        <v>3.9314720677652235E-12</v>
       </c>
       <c r="S7" s="4">
-        <v>2.206955060455456E-12</v>
+        <v>4.0417088880500391E-12</v>
       </c>
       <c r="T7" s="4">
-        <v>4.5334345236364746E-9</v>
+        <v>2.8602342508026922E-14</v>
       </c>
       <c r="U7" s="4">
         <v>0</v>
@@ -1859,16 +1851,16 @@
         <v>5</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC7" s="4">
-        <v>5.1614741399471818E-10</v>
+        <v>4.715954840367411E-11</v>
       </c>
       <c r="AD7" s="4">
-        <v>8.8943229689424498E-4</v>
+        <v>2.4159332240882648E-3</v>
       </c>
       <c r="AE7" s="4">
-        <v>1.2767330335212374E-3</v>
+        <v>1.7047420396343728E-3</v>
       </c>
       <c r="AF7" s="4">
         <v>0</v>
@@ -1906,13 +1898,13 @@
         <v>47</v>
       </c>
       <c r="G8" s="4">
-        <v>1.6710800984047328E-12</v>
+        <v>3.9465079475415404E-12</v>
       </c>
       <c r="H8" s="4">
-        <v>1.9490530607717994E-12</v>
+        <v>4.7197175500029834E-12</v>
       </c>
       <c r="I8" s="4">
-        <v>7.0277195461487605E-9</v>
+        <v>1.6824016849233136E-11</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
@@ -1930,13 +1922,13 @@
         <v>47</v>
       </c>
       <c r="R8" s="4">
-        <v>3.7663119086203955E-12</v>
+        <v>6.5739716355195635E-12</v>
       </c>
       <c r="S8" s="4">
-        <v>5.6101654895390886E-12</v>
+        <v>9.5703624924520915E-12</v>
       </c>
       <c r="T8" s="4">
-        <v>9.0316978060481303E-9</v>
+        <v>7.600382547799636E-14</v>
       </c>
       <c r="U8" s="4">
         <v>0</v>
@@ -1948,13 +1940,13 @@
         <v>47</v>
       </c>
       <c r="AC8" s="4">
-        <v>5.555895244748313E-12</v>
+        <v>3.8942867487951986E-12</v>
       </c>
       <c r="AD8" s="4">
-        <v>5.7163321507176161E-12</v>
+        <v>3.9140015745442136E-12</v>
       </c>
       <c r="AE8" s="4">
-        <v>2.2639069746438464E-9</v>
+        <v>1.8962589577220792E-14</v>
       </c>
       <c r="AF8" s="4">
         <v>0</v>
@@ -1992,13 +1984,13 @@
         <v>47</v>
       </c>
       <c r="G9" s="4">
-        <v>3.4299941903525905E-12</v>
+        <v>8.3707092450990388E-12</v>
       </c>
       <c r="H9" s="4">
-        <v>3.8823134484723652E-12</v>
+        <v>9.9395397054593881E-12</v>
       </c>
       <c r="I9" s="4">
-        <v>1.409491174077362E-8</v>
+        <v>3.3667885991069842E-11</v>
       </c>
       <c r="J9" s="4">
         <v>0</v>
@@ -2016,13 +2008,13 @@
         <v>47</v>
       </c>
       <c r="R9" s="4">
-        <v>3.7663119084690732E-12</v>
+        <v>6.5739716351415936E-12</v>
       </c>
       <c r="S9" s="4">
-        <v>5.6101654899514381E-12</v>
+        <v>9.5703624926023281E-12</v>
       </c>
       <c r="T9" s="4">
-        <v>9.0316978060451656E-9</v>
+        <v>7.6003825479630728E-14</v>
       </c>
       <c r="U9" s="4">
         <v>0</v>
@@ -2041,13 +2033,13 @@
         <v>47</v>
       </c>
       <c r="AC9" s="4">
-        <v>1.0945872818622751E-11</v>
+        <v>7.9413803737755401E-12</v>
       </c>
       <c r="AD9" s="4">
-        <v>1.122673182877255E-11</v>
+        <v>8.0945081725679308E-12</v>
       </c>
       <c r="AE9" s="4">
-        <v>4.5237142668622079E-9</v>
+        <v>3.6961942100115958E-14</v>
       </c>
       <c r="AF9" s="4">
         <v>0</v>
@@ -2082,16 +2074,16 @@
         <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L10" s="8">
         <v>31.266963958740234</v>
@@ -2106,13 +2098,13 @@
         <v>47</v>
       </c>
       <c r="R10" s="4">
-        <v>1.3254963907646269E-12</v>
+        <v>2.4549871143559023E-12</v>
       </c>
       <c r="S10" s="4">
-        <v>1.467176282211233E-12</v>
+        <v>2.7274009003121399E-12</v>
       </c>
       <c r="T10" s="4">
-        <v>3.0241477259636309E-9</v>
+        <v>1.4429415698892044E-14</v>
       </c>
       <c r="U10" s="4">
         <v>0</v>
@@ -2131,13 +2123,13 @@
         <v>47</v>
       </c>
       <c r="AC10" s="4">
-        <v>1.0815475361413278E-11</v>
+        <v>6.8111515394375637E-12</v>
       </c>
       <c r="AD10" s="4">
-        <v>1.148863926101511E-11</v>
+        <v>8.9955492571478639E-12</v>
       </c>
       <c r="AE10" s="4">
-        <v>4.5234015384450272E-9</v>
+        <v>3.7106678734474623E-14</v>
       </c>
       <c r="AF10" s="4">
         <v>0</v>
@@ -2166,13 +2158,13 @@
         <v>47</v>
       </c>
       <c r="R11" s="4">
-        <v>3.7663119084184601E-12</v>
+        <v>6.5739716352692896E-12</v>
       </c>
       <c r="S11" s="4">
-        <v>5.6101654904279976E-12</v>
+        <v>9.5703624924161091E-12</v>
       </c>
       <c r="T11" s="4">
-        <v>9.0316978060403564E-9</v>
+        <v>7.4437925717338709E-14</v>
       </c>
       <c r="U11" s="4">
         <v>0</v>
@@ -2191,13 +2183,13 @@
         <v>47</v>
       </c>
       <c r="AC11" s="4">
-        <v>3.8905052264674723E-12</v>
+        <v>2.6262963491250474E-12</v>
       </c>
       <c r="AD11" s="4">
-        <v>3.6310714767117051E-12</v>
+        <v>2.5722229484585257E-12</v>
       </c>
       <c r="AE11" s="4">
-        <v>1.5097878751916724E-9</v>
+        <v>1.2350646904118649E-14</v>
       </c>
       <c r="AF11" s="4">
         <v>0</v>
@@ -2227,13 +2219,13 @@
         <v>47</v>
       </c>
       <c r="R12" s="4">
-        <v>2.131046238603653E-12</v>
+        <v>3.9314720677673173E-12</v>
       </c>
       <c r="S12" s="4">
-        <v>2.206955060544184E-12</v>
+        <v>4.0417088880954823E-12</v>
       </c>
       <c r="T12" s="4">
-        <v>4.5334345236352404E-9</v>
+        <v>2.9354252582575104E-14</v>
       </c>
       <c r="U12" s="4">
         <v>0</v>
@@ -2251,13 +2243,13 @@
         <v>47</v>
       </c>
       <c r="AC12" s="4">
-        <v>1.0695874850758112E-11</v>
+        <v>7.4703054601118643E-12</v>
       </c>
       <c r="AD12" s="4">
-        <v>1.2956763689684168E-11</v>
+        <v>8.1171479278003691E-12</v>
       </c>
       <c r="AE12" s="4">
-        <v>4.5243786672618354E-9</v>
+        <v>3.776606942138359E-14</v>
       </c>
       <c r="AF12" s="4">
         <v>0</v>
@@ -2283,13 +2275,13 @@
         <v>47</v>
       </c>
       <c r="R13" s="4">
-        <v>1.9928750903006674E-12</v>
+        <v>3.6400907972670346E-12</v>
       </c>
       <c r="S13" s="4">
-        <v>2.2859127786228018E-12</v>
+        <v>4.2554019114662534E-12</v>
       </c>
       <c r="T13" s="4">
-        <v>4.5334425219339508E-9</v>
+        <v>3.1641386510908726E-14</v>
       </c>
       <c r="U13" s="4">
         <v>0</v>
@@ -2307,13 +2299,13 @@
         <v>47</v>
       </c>
       <c r="AC13" s="4">
-        <v>1.0815475361268005E-11</v>
+        <v>6.8111515389438403E-12</v>
       </c>
       <c r="AD13" s="4">
-        <v>1.1488639261406987E-11</v>
+        <v>8.995549257537466E-12</v>
       </c>
       <c r="AE13" s="4">
-        <v>4.5234015384459801E-9</v>
+        <v>3.7104271179311273E-14</v>
       </c>
       <c r="AF13" s="4">
         <v>0</v>
@@ -2339,13 +2331,13 @@
         <v>47</v>
       </c>
       <c r="R14" s="4">
-        <v>1.9928750904423221E-12</v>
+        <v>3.6400907974180984E-12</v>
       </c>
       <c r="S14" s="4">
-        <v>2.2859127785020851E-12</v>
+        <v>4.2554019113866372E-12</v>
       </c>
       <c r="T14" s="4">
-        <v>4.5334425219323494E-9</v>
+        <v>3.2272377099252402E-14</v>
       </c>
       <c r="U14" s="4">
         <v>0</v>
@@ -2363,13 +2355,13 @@
         <v>47</v>
       </c>
       <c r="AC14" s="4">
-        <v>5.6605125455756015E-12</v>
+        <v>3.8993403995654212E-12</v>
       </c>
       <c r="AD14" s="4">
-        <v>5.4299479961638432E-12</v>
+        <v>3.8692571216411349E-12</v>
       </c>
       <c r="AE14" s="4">
-        <v>2.2640428774651596E-9</v>
+        <v>1.8585350125703146E-14</v>
       </c>
       <c r="AF14" s="4">
         <v>0</v>
@@ -2395,13 +2387,13 @@
         <v>47</v>
       </c>
       <c r="R15" s="4">
-        <v>1.5513363160686648E-12</v>
+        <v>2.8170375128493288E-12</v>
       </c>
       <c r="S15" s="4">
-        <v>1.3176975451129125E-12</v>
+        <v>2.3401997116039714E-12</v>
       </c>
       <c r="T15" s="4">
-        <v>3.0241319875854994E-9</v>
+        <v>2.9968454324542537E-14</v>
       </c>
       <c r="U15" s="4">
         <v>0</v>
@@ -2419,13 +2411,13 @@
         <v>47</v>
       </c>
       <c r="AC15" s="4">
-        <v>5.6605125456392944E-12</v>
+        <v>3.8993403993732052E-12</v>
       </c>
       <c r="AD15" s="4">
-        <v>5.4299479966489847E-12</v>
+        <v>3.8692571219062463E-12</v>
       </c>
       <c r="AE15" s="4">
-        <v>2.2640428774648382E-9</v>
+        <v>1.8585972776466341E-14</v>
       </c>
       <c r="AF15" s="4">
         <v>0</v>
@@ -2451,13 +2443,13 @@
         <v>47</v>
       </c>
       <c r="R16" s="4">
-        <v>1.9928750902386547E-12</v>
+        <v>3.6400907972176622E-12</v>
       </c>
       <c r="S16" s="4">
-        <v>2.2859127785937987E-12</v>
+        <v>4.2554019114318995E-12</v>
       </c>
       <c r="T16" s="4">
-        <v>4.5334425219361213E-9</v>
+        <v>3.1641386511636952E-14</v>
       </c>
       <c r="U16" s="4">
         <v>0</v>
@@ -2475,13 +2467,13 @@
         <v>47</v>
       </c>
       <c r="AC16" s="4">
-        <v>5.6448698195487653E-12</v>
+        <v>3.8400502592331044E-12</v>
       </c>
       <c r="AD16" s="4">
-        <v>5.4821437631623839E-12</v>
+        <v>3.9601253083755104E-12</v>
       </c>
       <c r="AE16" s="4">
-        <v>2.2640044241350543E-9</v>
+        <v>1.8637893999345886E-14</v>
       </c>
       <c r="AF16" s="4">
         <v>0</v>
@@ -2515,13 +2507,13 @@
         <v>47</v>
       </c>
       <c r="R17" s="4">
-        <v>2.1310462386848976E-12</v>
+        <v>3.9314720677696179E-12</v>
       </c>
       <c r="S17" s="4">
-        <v>2.2069550602948408E-12</v>
+        <v>4.0417088879047655E-12</v>
       </c>
       <c r="T17" s="4">
-        <v>4.5334345236387551E-9</v>
+        <v>2.8602342509282839E-14</v>
       </c>
       <c r="U17" s="4">
         <v>0</v>
@@ -2539,13 +2531,13 @@
         <v>47</v>
       </c>
       <c r="AC17" s="4">
-        <v>3.4862384814951836E-12</v>
+        <v>2.4261913839110045E-12</v>
       </c>
       <c r="AD17" s="4">
-        <v>4.6316446526028584E-12</v>
+        <v>2.9863474872014179E-12</v>
       </c>
       <c r="AE17" s="4">
-        <v>1.5097706647795196E-9</v>
+        <v>1.2343041578225958E-14</v>
       </c>
       <c r="AF17" s="4">
         <v>0</v>
@@ -2576,16 +2568,16 @@
         <v>46</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="W18" s="8">
         <v>27.626361846923828</v>
@@ -2600,13 +2592,13 @@
         <v>47</v>
       </c>
       <c r="AC18" s="4">
-        <v>4.467836900662223E-12</v>
+        <v>3.5581747048964648E-12</v>
       </c>
       <c r="AD18" s="4">
-        <v>2.4456513554432109E-12</v>
+        <v>1.6939676422553573E-12</v>
       </c>
       <c r="AE18" s="4">
-        <v>1.5097288756236944E-9</v>
+        <v>1.2164876781425242E-14</v>
       </c>
       <c r="AF18" s="4">
         <v>0</v>
@@ -2659,13 +2651,13 @@
         <v>47</v>
       </c>
       <c r="AC19" s="4">
-        <v>5.2332356025515787E-12</v>
+        <v>3.6605036444049262E-12</v>
       </c>
       <c r="AD19" s="4">
-        <v>7.3353700349842082E-12</v>
+        <v>4.6131899588951631E-12</v>
       </c>
       <c r="AE19" s="4">
-        <v>2.2640970714615604E-9</v>
+        <v>1.8688071562460622E-14</v>
       </c>
       <c r="AF19" s="4">
         <v>0</v>
@@ -2697,13 +2689,13 @@
         <v>47</v>
       </c>
       <c r="R20" s="4">
-        <v>2.2145222167989025E-11</v>
+        <v>7.8390646987343783E-12</v>
       </c>
       <c r="S20" s="4">
-        <v>2.6762492626361875E-11</v>
+        <v>8.689198997847672E-12</v>
       </c>
       <c r="T20" s="4">
-        <v>7.0239601367218779E-9</v>
+        <v>-1.1703320448696904E-12</v>
       </c>
       <c r="U20" s="4">
         <v>0</v>
@@ -2721,13 +2713,13 @@
         <v>47</v>
       </c>
       <c r="AC20" s="4">
-        <v>1.0695874850825114E-11</v>
+        <v>7.4703054595100904E-12</v>
       </c>
       <c r="AD20" s="4">
-        <v>1.2956763690079561E-11</v>
+        <v>8.1171479278800886E-12</v>
       </c>
       <c r="AE20" s="4">
-        <v>4.524378667261938E-9</v>
+        <v>3.7762823773872003E-14</v>
       </c>
       <c r="AF20" s="4">
         <v>0</v>
@@ -2756,16 +2748,16 @@
         <v>2</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R21" s="4">
-        <v>9.0634479286488466E-10</v>
+        <v>6.9923636788031713E-12</v>
       </c>
       <c r="S21" s="4">
-        <v>107.05189023146639</v>
+        <v>290.78121896814139</v>
       </c>
       <c r="T21" s="4">
-        <v>236.73173607365325</v>
+        <v>144.61784079522246</v>
       </c>
       <c r="U21" s="4">
         <v>0</v>
@@ -2783,13 +2775,13 @@
         <v>47</v>
       </c>
       <c r="AC21" s="4">
-        <v>1.0945872818912057E-11</v>
+        <v>7.9413803740154225E-12</v>
       </c>
       <c r="AD21" s="4">
-        <v>1.1226731828678665E-11</v>
+        <v>8.0945081726226282E-12</v>
       </c>
       <c r="AE21" s="4">
-        <v>4.5237142668615552E-9</v>
+        <v>3.6959718468849383E-14</v>
       </c>
       <c r="AF21" s="4">
         <v>0</v>
@@ -2818,16 +2810,16 @@
         <v>3</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R22" s="4">
-        <v>6.3910040312231949E-11</v>
+        <v>7.7009088949963598E-12</v>
       </c>
       <c r="S22" s="4">
-        <v>92.90897997098854</v>
+        <v>252.36533798718926</v>
       </c>
       <c r="T22" s="4">
-        <v>109.7493359088853</v>
+        <v>17.636115366356986</v>
       </c>
       <c r="U22" s="4">
         <v>0</v>
@@ -2845,13 +2837,13 @@
         <v>47</v>
       </c>
       <c r="AC22" s="4">
-        <v>1.0945872817792054E-11</v>
+        <v>7.9413803735794983E-12</v>
       </c>
       <c r="AD22" s="4">
-        <v>1.1226731828301264E-11</v>
+        <v>8.0945081723049908E-12</v>
       </c>
       <c r="AE22" s="4">
-        <v>4.5237142668609969E-9</v>
+        <v>3.6961942100423323E-14</v>
       </c>
       <c r="AF22" s="4">
         <v>0</v>
@@ -2883,13 +2875,13 @@
         <v>47</v>
       </c>
       <c r="R23" s="4">
-        <v>2.2145223053645905E-11</v>
+        <v>7.8390268453145059E-12</v>
       </c>
       <c r="S23" s="4">
-        <v>2.6762491935527072E-11</v>
+        <v>8.6892993368355326E-12</v>
       </c>
       <c r="T23" s="4">
-        <v>7.0239601367228912E-9</v>
+        <v>2.3185071725262323E-13</v>
       </c>
       <c r="U23" s="4">
         <v>0</v>
@@ -2907,13 +2899,13 @@
         <v>47</v>
       </c>
       <c r="AC23" s="4">
-        <v>5.5558952444262295E-12</v>
+        <v>3.8942867489412994E-12</v>
       </c>
       <c r="AD23" s="4">
-        <v>5.716332150569344E-12</v>
+        <v>3.9140015743438808E-12</v>
       </c>
       <c r="AE23" s="4">
-        <v>2.2639069746434444E-9</v>
+        <v>1.8963452113750523E-14</v>
       </c>
       <c r="AF23" s="4">
         <v>0</v>
@@ -2933,13 +2925,13 @@
         <v>47</v>
       </c>
       <c r="R24" s="4">
-        <v>2.1698266638996798E-11</v>
+        <v>7.5852108844553677E-12</v>
       </c>
       <c r="S24" s="4">
-        <v>2.5890105779173638E-11</v>
+        <v>8.6336435652244191E-12</v>
       </c>
       <c r="T24" s="4">
-        <v>7.0239601362882797E-9</v>
+        <v>2.3182066784134038E-13</v>
       </c>
       <c r="U24" s="4">
         <v>0</v>
@@ -2957,13 +2949,13 @@
         <v>47</v>
       </c>
       <c r="AC24" s="4">
-        <v>1.0815475361532289E-11</v>
+        <v>6.8111515395730146E-12</v>
       </c>
       <c r="AD24" s="4">
-        <v>1.148863926142684E-11</v>
+        <v>8.9955492572496071E-12</v>
       </c>
       <c r="AE24" s="4">
-        <v>4.5234015384463581E-9</v>
+        <v>3.7106678734128484E-14</v>
       </c>
       <c r="AF24" s="4">
         <v>0</v>
@@ -2986,19 +2978,19 @@
         <v>6</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R25" s="9">
-        <v>2.1626336743837235E-10</v>
-      </c>
-      <c r="S25" s="9">
-        <v>92.908980051498119</v>
+        <v>50</v>
+      </c>
+      <c r="R25" s="2">
+        <v>2.5544660202916558E-10</v>
+      </c>
+      <c r="S25" s="2">
+        <v>252.36533800713039</v>
       </c>
       <c r="T25" s="2">
-        <v>81.916838434344086</v>
+        <v>174.0306899451991</v>
       </c>
       <c r="U25" s="2">
-        <v>230.18361871024536</v>
+        <v>230.18183055645466</v>
       </c>
       <c r="W25" s="8">
         <v>19.730842590332031</v>
@@ -3013,13 +3005,13 @@
         <v>47</v>
       </c>
       <c r="AC25" s="4">
-        <v>5.6448698194817637E-12</v>
+        <v>3.8400502594445525E-12</v>
       </c>
       <c r="AD25" s="4">
-        <v>5.4821437625435494E-12</v>
+        <v>3.9601253080871345E-12</v>
       </c>
       <c r="AE25" s="4">
-        <v>2.264004424135321E-9</v>
+        <v>1.8637238353348106E-14</v>
       </c>
       <c r="AF25" s="4">
         <v>0</v>
@@ -3048,13 +3040,13 @@
         <v>47</v>
       </c>
       <c r="R26" s="4">
-        <v>2.2088110675064844E-11</v>
+        <v>8.0964455014750889E-12</v>
       </c>
       <c r="S26" s="4">
-        <v>2.5873252369381535E-11</v>
+        <v>8.1845027979114749E-12</v>
       </c>
       <c r="T26" s="4">
-        <v>7.0239601367183557E-9</v>
+        <v>2.3178491463926643E-13</v>
       </c>
       <c r="U26" s="4">
         <v>0</v>
@@ -3072,13 +3064,13 @@
         <v>47</v>
       </c>
       <c r="AC26" s="4">
-        <v>3.4792919366447398E-12</v>
+        <v>2.3958343127229704E-12</v>
       </c>
       <c r="AD26" s="4">
-        <v>4.6413048481322956E-12</v>
+        <v>3.0115182703416317E-12</v>
       </c>
       <c r="AE26" s="4">
-        <v>1.5097647940523628E-9</v>
+        <v>1.2311588777185427E-14</v>
       </c>
       <c r="AF26" s="4">
         <v>0</v>
@@ -3107,13 +3099,13 @@
         <v>47</v>
       </c>
       <c r="R27" s="4">
-        <v>1.1303212448278127E-11</v>
+        <v>3.9038593859516596E-12</v>
       </c>
       <c r="S27" s="4">
-        <v>1.2610302137996708E-11</v>
+        <v>4.0534736813016681E-12</v>
       </c>
       <c r="T27" s="4">
-        <v>3.5373176351538269E-9</v>
+        <v>1.1872327060436464E-13</v>
       </c>
       <c r="U27" s="4">
         <v>0</v>
@@ -3132,13 +3124,13 @@
         <v>47</v>
       </c>
       <c r="AC27" s="4">
-        <v>5.2332356033801034E-12</v>
+        <v>3.6605036446859608E-12</v>
       </c>
       <c r="AD27" s="4">
-        <v>7.3353700326085455E-12</v>
+        <v>4.6131899566768715E-12</v>
       </c>
       <c r="AE27" s="4">
-        <v>2.2640970714619508E-9</v>
+        <v>1.8688759535550168E-14</v>
       </c>
       <c r="AF27" s="4">
         <v>0</v>
@@ -3164,13 +3156,13 @@
         <v>47</v>
       </c>
       <c r="R28" s="4">
-        <v>2.2088110787129696E-11</v>
+        <v>8.0965236857715657E-12</v>
       </c>
       <c r="S28" s="4">
-        <v>2.5873251758412855E-11</v>
+        <v>8.1844206745924402E-12</v>
       </c>
       <c r="T28" s="4">
-        <v>7.0239601366989186E-9</v>
+        <v>2.3178494422209503E-13</v>
       </c>
       <c r="U28" s="4">
         <v>0</v>
@@ -3189,13 +3181,13 @@
         <v>47</v>
       </c>
       <c r="AC28" s="4">
-        <v>5.6448698193466231E-12</v>
+        <v>3.8400502594224771E-12</v>
       </c>
       <c r="AD28" s="4">
-        <v>5.4821437621689917E-12</v>
+        <v>3.9601253080075184E-12</v>
       </c>
       <c r="AE28" s="4">
-        <v>2.2640044241346241E-9</v>
+        <v>1.8637238353244506E-14</v>
       </c>
       <c r="AF28" s="4">
         <v>0</v>
@@ -3221,13 +3213,13 @@
         <v>47</v>
       </c>
       <c r="R29" s="4">
-        <v>2.1698266398068269E-11</v>
+        <v>7.585118871503172E-12</v>
       </c>
       <c r="S29" s="4">
-        <v>2.5890104959839454E-11</v>
+        <v>8.6339537429414511E-12</v>
       </c>
       <c r="T29" s="4">
-        <v>7.0239601362837492E-9</v>
+        <v>2.3182063824613961E-13</v>
       </c>
       <c r="U29" s="4">
         <v>0</v>
@@ -3246,13 +3238,13 @@
         <v>47</v>
       </c>
       <c r="AC29" s="4">
-        <v>5.2332356029236548E-12</v>
+        <v>3.6605036444685674E-12</v>
       </c>
       <c r="AD29" s="4">
-        <v>7.335370035256454E-12</v>
+        <v>4.613189958964853E-12</v>
       </c>
       <c r="AE29" s="4">
-        <v>2.2640970714622759E-9</v>
+        <v>1.8688071562589667E-14</v>
       </c>
       <c r="AF29" s="4">
         <v>0</v>
@@ -3278,13 +3270,13 @@
         <v>47</v>
       </c>
       <c r="R30" s="4">
-        <v>2.2060008528764483E-11</v>
+        <v>7.6444906845193276E-12</v>
       </c>
       <c r="S30" s="4">
-        <v>2.6150913067748947E-11</v>
+        <v>8.7146129557307819E-12</v>
       </c>
       <c r="T30" s="4">
-        <v>7.0239601362799541E-9</v>
+        <v>2.3175483307951213E-13</v>
       </c>
       <c r="U30" s="4">
         <v>0</v>
@@ -3296,13 +3288,13 @@
         <v>47</v>
       </c>
       <c r="AC30" s="4">
-        <v>5.6605125454573147E-12</v>
+        <v>3.8993403995683164E-12</v>
       </c>
       <c r="AD30" s="4">
-        <v>5.4299479958058291E-12</v>
+        <v>3.8692571215513858E-12</v>
       </c>
       <c r="AE30" s="4">
-        <v>2.2640428774645053E-9</v>
+        <v>1.8585350125586622E-14</v>
       </c>
       <c r="AF30" s="4">
         <v>0</v>
@@ -3328,13 +3320,13 @@
         <v>47</v>
       </c>
       <c r="R31" s="4">
-        <v>2.2060008984148116E-11</v>
+        <v>7.6444184162405153E-12</v>
       </c>
       <c r="S31" s="4">
-        <v>2.6150914126504511E-11</v>
+        <v>8.7146628031142784E-12</v>
       </c>
       <c r="T31" s="4">
-        <v>7.02396013626404E-9</v>
+        <v>2.3175480347748067E-13</v>
       </c>
       <c r="U31" s="4">
         <v>0</v>
@@ -3346,13 +3338,13 @@
         <v>47</v>
       </c>
       <c r="AC31" s="4">
-        <v>1.0695874850725852E-11</v>
+        <v>7.470305460121687E-12</v>
       </c>
       <c r="AD31" s="4">
-        <v>1.2956763688727741E-11</v>
+        <v>8.1171479272410916E-12</v>
       </c>
       <c r="AE31" s="4">
-        <v>4.524378667262053E-9</v>
+        <v>3.7766069421802835E-14</v>
       </c>
       <c r="AF31" s="4">
         <v>0</v>
@@ -3378,13 +3370,13 @@
         <v>47</v>
       </c>
       <c r="R32" s="4">
-        <v>1.1358000573155691E-11</v>
+        <v>3.8469480417952641E-12</v>
       </c>
       <c r="S32" s="4">
-        <v>1.2638636178343037E-11</v>
+        <v>4.1396598266826983E-12</v>
       </c>
       <c r="T32" s="4">
-        <v>3.5373176350631307E-9</v>
+        <v>1.1884238879347752E-13</v>
       </c>
       <c r="U32" s="4">
         <v>0</v>
@@ -3396,13 +3388,13 @@
         <v>47</v>
       </c>
       <c r="AC32" s="4">
-        <v>5.5558952447470722E-12</v>
+        <v>3.8942867487727613E-12</v>
       </c>
       <c r="AD32" s="4">
-        <v>5.7163321508026089E-12</v>
+        <v>3.9140015745292209E-12</v>
       </c>
       <c r="AE32" s="4">
-        <v>2.263906974643159E-9</v>
+        <v>1.8962589577104066E-14</v>
       </c>
       <c r="AF32" s="4">
         <v>0</v>
@@ -3428,13 +3420,13 @@
         <v>47</v>
       </c>
       <c r="R33" s="4">
-        <v>1.12666112998668E-11</v>
+        <v>3.8998197422696015E-12</v>
       </c>
       <c r="S33" s="4">
-        <v>1.2597300581836535E-11</v>
+        <v>4.0594606230592078E-12</v>
       </c>
       <c r="T33" s="4">
-        <v>3.5373176352631301E-9</v>
+        <v>1.1876258014555865E-13</v>
       </c>
       <c r="U33" s="4">
         <v>0</v>
@@ -3443,19 +3435,19 @@
         <v>31</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC33" s="4">
-        <v>1.454486984857716E-11</v>
+        <v>1.2791554592509549E-9</v>
       </c>
       <c r="AD33" s="2">
-        <v>7.140724486874398E-4</v>
+        <v>1.939608701507659E-3</v>
       </c>
       <c r="AE33" s="4">
-        <v>5.5072679217470157E-4</v>
+        <v>1.2276153398387311E-4</v>
       </c>
       <c r="AF33" s="4">
-        <v>1.6276352698517457E-3</v>
+        <v>1.627625424474225E-3</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
@@ -3478,13 +3470,13 @@
         <v>47</v>
       </c>
       <c r="R34" s="4">
-        <v>1.1797299267220334E-11</v>
+        <v>4.0977433533386562E-12</v>
       </c>
       <c r="S34" s="4">
-        <v>1.2047041304120711E-11</v>
+        <v>3.9296672292773539E-12</v>
       </c>
       <c r="T34" s="4">
-        <v>3.5373176353055922E-9</v>
+        <v>1.1864336018334207E-13</v>
       </c>
       <c r="U34" s="4">
         <v>0</v>
@@ -3493,13 +3485,13 @@
         <v>46</v>
       </c>
       <c r="AB34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE34" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="AD34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE34" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="AF34" s="2" t="s">
         <v>62</v>
@@ -3524,16 +3516,16 @@
         <v>46</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="W35" s="1" t="s">
         <v>20</v>
@@ -3618,13 +3610,13 @@
         <v>47</v>
       </c>
       <c r="AC36" s="4">
-        <v>2.0378402921473289E-11</v>
+        <v>8.7199508791595374E-12</v>
       </c>
       <c r="AD36" s="4">
-        <v>2.5491660936073805E-11</v>
+        <v>9.1246949017457218E-12</v>
       </c>
       <c r="AE36" s="4">
-        <v>4.3927558082652416E-9</v>
+        <v>-6.9170539651224844E-13</v>
       </c>
       <c r="AF36" s="4">
         <v>0</v>
@@ -3656,13 +3648,13 @@
         <v>47</v>
       </c>
       <c r="R37" s="4">
-        <v>2.1908526219683319E-11</v>
+        <v>3.6789722154021357E-11</v>
       </c>
       <c r="S37" s="4">
-        <v>2.7615782267924691E-11</v>
+        <v>4.6906309924380905E-11</v>
       </c>
       <c r="T37" s="4">
-        <v>9.0236555079310371E-9</v>
+        <v>-3.0199633900787452E-12</v>
       </c>
       <c r="U37" s="4">
         <v>0</v>
@@ -3686,13 +3678,13 @@
         <v>47</v>
       </c>
       <c r="AC37" s="4">
-        <v>2.0378402907635385E-11</v>
+        <v>8.7199508561724984E-12</v>
       </c>
       <c r="AD37" s="4">
-        <v>2.5491660740458412E-11</v>
+        <v>9.124694938993975E-12</v>
       </c>
       <c r="AE37" s="4">
-        <v>4.3927558082728533E-9</v>
+        <v>7.68019385865766E-14</v>
       </c>
       <c r="AF37" s="4">
         <v>0</v>
@@ -3721,19 +3713,19 @@
         <v>2</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R38" s="9">
-        <v>7.0931982357622694</v>
-      </c>
-      <c r="S38" s="9">
-        <v>21.611486875562107</v>
+        <v>48</v>
+      </c>
+      <c r="R38" s="2">
+        <v>2.6113800675830006</v>
+      </c>
+      <c r="S38" s="2">
+        <v>58.702508489124668</v>
       </c>
       <c r="T38" s="2">
-        <v>49.820048640868265</v>
+        <v>49.820122419154636</v>
       </c>
       <c r="U38" s="2">
-        <v>49.231431089372329</v>
+        <v>49.231433688689592</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>14</v>
@@ -3751,16 +3743,16 @@
         <v>3</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC38" s="4">
-        <v>3.3713400047929252E-11</v>
+        <v>2.0321395732036043E-10</v>
       </c>
       <c r="AD38" s="4">
-        <v>66.195054499864995</v>
+        <v>179.8032579228589</v>
       </c>
       <c r="AE38" s="4">
-        <v>122.64959872194791</v>
+        <v>12.349149012999286</v>
       </c>
       <c r="AF38" s="4">
         <v>0</v>
@@ -3792,13 +3784,13 @@
         <v>47</v>
       </c>
       <c r="R39" s="4">
-        <v>2.190852621988784E-11</v>
+        <v>3.6789722153839998E-11</v>
       </c>
       <c r="S39" s="4">
-        <v>2.7615782268157542E-11</v>
+        <v>4.6906309924650359E-11</v>
       </c>
       <c r="T39" s="4">
-        <v>9.0236555079341688E-9</v>
+        <v>8.3591426552404656E-13</v>
       </c>
       <c r="U39" s="4">
         <v>0</v>
@@ -3819,16 +3811,16 @@
         <v>4</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC39" s="4">
-        <v>1.970789578172716E-10</v>
+        <v>1.7852524316519472E-10</v>
       </c>
       <c r="AD39" s="4">
-        <v>108.90541684618404</v>
+        <v>295.81588696127153</v>
       </c>
       <c r="AE39" s="4">
-        <v>181.22103425725632</v>
+        <v>70.920501620786311</v>
       </c>
       <c r="AF39" s="4">
         <v>0</v>
@@ -3865,13 +3857,13 @@
         <v>47</v>
       </c>
       <c r="R40" s="4">
-        <v>2.1908526219453777E-11</v>
+        <v>3.6789722153685522E-11</v>
       </c>
       <c r="S40" s="4">
-        <v>2.7615782267560525E-11</v>
+        <v>4.6906309923732188E-11</v>
       </c>
       <c r="T40" s="4">
-        <v>9.0236555079315698E-9</v>
+        <v>8.3591426557210059E-13</v>
       </c>
       <c r="U40" s="4">
         <v>0</v>
@@ -3895,13 +3887,13 @@
         <v>47</v>
       </c>
       <c r="AC40" s="4">
-        <v>2.037840294028958E-11</v>
+        <v>8.7199508187368888E-12</v>
       </c>
       <c r="AD40" s="4">
-        <v>2.5491660881954066E-11</v>
+        <v>9.1246949240991405E-12</v>
       </c>
       <c r="AE40" s="4">
-        <v>4.3927558082726878E-9</v>
+        <v>7.6801938583704894E-14</v>
       </c>
       <c r="AF40" s="4">
         <v>0</v>
@@ -3926,13 +3918,13 @@
         <v>47</v>
       </c>
       <c r="R41" s="4">
-        <v>2.1136096475967802E-11</v>
+        <v>3.5426407422378946E-11</v>
       </c>
       <c r="S41" s="4">
-        <v>2.8512862265231067E-11</v>
+        <v>4.9069324379658287E-11</v>
       </c>
       <c r="T41" s="4">
-        <v>9.0236555211291654E-9</v>
+        <v>8.3060673470439162E-13</v>
       </c>
       <c r="U41" s="4">
         <v>0</v>
@@ -3944,13 +3936,13 @@
         <v>47</v>
       </c>
       <c r="AC41" s="4">
-        <v>2.0475709468893005E-11</v>
+        <v>8.6840884835480181E-12</v>
       </c>
       <c r="AD41" s="4">
-        <v>2.4693052231102759E-11</v>
+        <v>9.1433778822130014E-12</v>
       </c>
       <c r="AE41" s="4">
-        <v>4.3927558092648645E-9</v>
+        <v>7.6780420110218184E-14</v>
       </c>
       <c r="AF41" s="4">
         <v>0</v>
@@ -3976,13 +3968,13 @@
         <v>47</v>
       </c>
       <c r="R42" s="4">
-        <v>2.1136096476118969E-11</v>
+        <v>3.5426407422828105E-11</v>
       </c>
       <c r="S42" s="4">
-        <v>2.8512862265390093E-11</v>
+        <v>4.9069324379080915E-11</v>
       </c>
       <c r="T42" s="4">
-        <v>9.0236555211302159E-9</v>
+        <v>8.3551872493932272E-13</v>
       </c>
       <c r="U42" s="4">
         <v>0</v>
@@ -4000,13 +3992,13 @@
         <v>47</v>
       </c>
       <c r="AC42" s="4">
-        <v>2.0010667020054653E-11</v>
+        <v>8.9002714537574191E-12</v>
       </c>
       <c r="AD42" s="4">
-        <v>2.5778081942276963E-11</v>
+        <v>8.9602465585029796E-12</v>
       </c>
       <c r="AE42" s="4">
-        <v>4.3927558085202241E-9</v>
+        <v>7.677630647713064E-14</v>
       </c>
       <c r="AF42" s="4">
         <v>0</v>
@@ -4026,13 +4018,13 @@
         <v>47</v>
       </c>
       <c r="R43" s="4">
-        <v>1.1871681912063575E-11</v>
+        <v>2.0075029715353073E-11</v>
       </c>
       <c r="S43" s="4">
-        <v>1.2610188617926821E-11</v>
+        <v>2.130484435516447E-11</v>
       </c>
       <c r="T43" s="4">
-        <v>4.5351038283492297E-9</v>
+        <v>4.0871180363072311E-13</v>
       </c>
       <c r="U43" s="4">
         <v>0</v>
@@ -4050,13 +4042,13 @@
         <v>47</v>
       </c>
       <c r="AC43" s="4">
-        <v>2.0475709486499752E-11</v>
+        <v>8.6840884273941385E-12</v>
       </c>
       <c r="AD43" s="4">
-        <v>2.4693052097807152E-11</v>
+        <v>9.1433779259290831E-12</v>
       </c>
       <c r="AE43" s="4">
-        <v>4.392755809231458E-9</v>
+        <v>7.678408341230438E-14</v>
       </c>
       <c r="AF43" s="4">
         <v>0</v>
@@ -4076,13 +4068,13 @@
         <v>47</v>
       </c>
       <c r="R44" s="4">
-        <v>1.1412185124111294E-11</v>
+        <v>1.9024446224365707E-11</v>
       </c>
       <c r="S44" s="4">
-        <v>1.3113775273130937E-11</v>
+        <v>2.2110359028235547E-11</v>
       </c>
       <c r="T44" s="4">
-        <v>4.5351038282424779E-9</v>
+        <v>4.0739511760898257E-13</v>
       </c>
       <c r="U44" s="4">
         <v>0</v>
@@ -4100,13 +4092,13 @@
         <v>47</v>
       </c>
       <c r="AC44" s="4">
-        <v>2.0112995718170666E-11</v>
+        <v>8.8152048192414095E-12</v>
       </c>
       <c r="AD44" s="4">
-        <v>2.5017597244002781E-11</v>
+        <v>8.9435941455914559E-12</v>
       </c>
       <c r="AE44" s="4">
-        <v>4.3927558094160285E-9</v>
+        <v>7.675480233222725E-14</v>
       </c>
       <c r="AF44" s="4">
         <v>0</v>
@@ -4126,13 +4118,13 @@
         <v>47</v>
       </c>
       <c r="R45" s="4">
-        <v>1.1871681912125923E-11</v>
+        <v>2.0075029715494831E-11</v>
       </c>
       <c r="S45" s="4">
-        <v>1.261018861796208E-11</v>
+        <v>2.1304844355170002E-11</v>
       </c>
       <c r="T45" s="4">
-        <v>4.5351038283478813E-9</v>
+        <v>4.0736011920290063E-13</v>
       </c>
       <c r="U45" s="4">
         <v>0</v>
@@ -4150,13 +4142,13 @@
         <v>47</v>
       </c>
       <c r="AC45" s="4">
-        <v>1.0678010305795474E-11</v>
+        <v>4.2068053053574081E-12</v>
       </c>
       <c r="AD45" s="4">
-        <v>1.1832290018725317E-11</v>
+        <v>4.2790624913639456E-12</v>
       </c>
       <c r="AE45" s="4">
-        <v>2.3087739807391728E-9</v>
+        <v>4.7051403774471368E-14</v>
       </c>
       <c r="AF45" s="4">
         <v>0</v>
@@ -4179,13 +4171,13 @@
         <v>47</v>
       </c>
       <c r="R46" s="4">
-        <v>2.1136096475771139E-11</v>
+        <v>3.5426407422091501E-11</v>
       </c>
       <c r="S46" s="4">
-        <v>2.8512862264911155E-11</v>
+        <v>4.9069324378772377E-11</v>
       </c>
       <c r="T46" s="4">
-        <v>9.0236555211265134E-9</v>
+        <v>8.3551872498795835E-13</v>
       </c>
       <c r="U46" s="4">
         <v>0</v>
@@ -4203,13 +4195,13 @@
         <v>47</v>
       </c>
       <c r="AC46" s="4">
-        <v>1.0865563255942388E-11</v>
+        <v>4.2662767159613946E-12</v>
       </c>
       <c r="AD46" s="4">
-        <v>1.1830412894721982E-11</v>
+        <v>4.3211783358397611E-12</v>
       </c>
       <c r="AE46" s="4">
-        <v>2.3087739807113853E-9</v>
+        <v>4.7041050173434864E-14</v>
       </c>
       <c r="AF46" s="4">
         <v>0</v>
@@ -4231,13 +4223,13 @@
         <v>47</v>
       </c>
       <c r="R47" s="4">
-        <v>1.1412185124227823E-11</v>
+        <v>1.9024446224525663E-11</v>
       </c>
       <c r="S47" s="4">
-        <v>1.3113775273246638E-11</v>
+        <v>2.211035902851834E-11</v>
       </c>
       <c r="T47" s="4">
-        <v>4.5351038282394305E-9</v>
+        <v>4.0739511761185832E-13</v>
       </c>
       <c r="U47" s="4">
         <v>0</v>
@@ -4255,13 +4247,13 @@
         <v>47</v>
       </c>
       <c r="AC47" s="4">
-        <v>1.0752021882512726E-11</v>
+        <v>4.1747793851326012E-12</v>
       </c>
       <c r="AD47" s="4">
-        <v>1.1751935197340398E-11</v>
+        <v>4.3166131239721117E-12</v>
       </c>
       <c r="AE47" s="4">
-        <v>2.3087739808305952E-9</v>
+        <v>4.7036870925302429E-14</v>
       </c>
       <c r="AF47" s="4">
         <v>0</v>
@@ -4281,13 +4273,13 @@
         <v>47</v>
       </c>
       <c r="R48" s="4">
-        <v>1.1412185124174057E-11</v>
+        <v>1.9024446224409755E-11</v>
       </c>
       <c r="S48" s="4">
-        <v>1.3113775273200213E-11</v>
+        <v>2.2110359028458886E-11</v>
       </c>
       <c r="T48" s="4">
-        <v>4.5351038282402081E-9</v>
+        <v>4.087461738146559E-13</v>
       </c>
       <c r="U48" s="4">
         <v>0</v>
@@ -4305,13 +4297,13 @@
         <v>47</v>
       </c>
       <c r="AC48" s="4">
-        <v>2.0112995784586859E-11</v>
+        <v>8.8152048275792867E-12</v>
       </c>
       <c r="AD48" s="4">
-        <v>2.5017597121550685E-11</v>
+        <v>8.9435941616538559E-12</v>
       </c>
       <c r="AE48" s="4">
-        <v>4.3927558094295661E-9</v>
+        <v>7.6758449220703049E-14</v>
       </c>
       <c r="AF48" s="4">
         <v>0</v>
@@ -4331,13 +4323,13 @@
         <v>47</v>
       </c>
       <c r="R49" s="4">
-        <v>8.1898578449217379E-12</v>
+        <v>1.3805224997329763E-11</v>
       </c>
       <c r="S49" s="4">
-        <v>8.3460143038695173E-12</v>
+        <v>1.3556929339606478E-11</v>
       </c>
       <c r="T49" s="4">
-        <v>3.0287494536981613E-9</v>
+        <v>2.7982427917668448E-13</v>
       </c>
       <c r="U49" s="4">
         <v>0</v>
@@ -4355,13 +4347,13 @@
         <v>47</v>
       </c>
       <c r="AC49" s="4">
-        <v>2.0112995544797126E-11</v>
+        <v>8.8152048124735211E-12</v>
       </c>
       <c r="AD49" s="4">
-        <v>2.5017597465798027E-11</v>
+        <v>8.9435941535919468E-12</v>
       </c>
       <c r="AE49" s="4">
-        <v>4.3927558094422269E-9</v>
+        <v>7.6758449219289411E-14</v>
       </c>
       <c r="AF49" s="4">
         <v>0</v>
@@ -4381,13 +4373,13 @@
         <v>47</v>
       </c>
       <c r="R50" s="4">
-        <v>7.6192417033550255E-12</v>
+        <v>1.2593977187243337E-11</v>
       </c>
       <c r="S50" s="4">
-        <v>8.5654257485315478E-12</v>
+        <v>1.4526236725081838E-11</v>
       </c>
       <c r="T50" s="4">
-        <v>3.0287494542960098E-9</v>
+        <v>2.8002190257418701E-13</v>
       </c>
       <c r="U50" s="4">
         <v>0</v>
@@ -4405,13 +4397,13 @@
         <v>47</v>
       </c>
       <c r="AC50" s="4">
-        <v>1.0634561577861535E-11</v>
+        <v>4.2272870625448699E-12</v>
       </c>
       <c r="AD50" s="4">
-        <v>1.2007903432972315E-11</v>
+        <v>4.1683934275530567E-12</v>
       </c>
       <c r="AE50" s="4">
-        <v>2.3087739808517161E-9</v>
+        <v>4.7043410010292602E-14</v>
       </c>
       <c r="AF50" s="4">
         <v>0</v>
@@ -4431,13 +4423,13 @@
         <v>47</v>
       </c>
       <c r="R51" s="4">
-        <v>1.1871681911999365E-11</v>
+        <v>2.0075029715289277E-11</v>
       </c>
       <c r="S51" s="4">
-        <v>1.2610188617836658E-11</v>
+        <v>2.1304844354632696E-11</v>
       </c>
       <c r="T51" s="4">
-        <v>4.5351038283511421E-9</v>
+        <v>4.0736011919974054E-13</v>
       </c>
       <c r="U51" s="4">
         <v>0</v>
@@ -4455,13 +4447,13 @@
         <v>47</v>
       </c>
       <c r="AC51" s="4">
-        <v>7.2080699164356853E-12</v>
+        <v>2.5900459411057501E-12</v>
       </c>
       <c r="AD51" s="4">
-        <v>7.8581262834812355E-12</v>
+        <v>2.9631244480065797E-12</v>
       </c>
       <c r="AE51" s="4">
-        <v>1.55098930241006E-9</v>
+        <v>2.1304075961391323E-14</v>
       </c>
       <c r="AF51" s="4">
         <v>0</v>
@@ -4481,16 +4473,16 @@
         <v>46</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="W52" s="8">
         <v>27.062686920166016</v>
@@ -4505,13 +4497,13 @@
         <v>47</v>
       </c>
       <c r="AC52" s="4">
-        <v>7.1567847957959931E-12</v>
+        <v>2.7882038074616873E-12</v>
       </c>
       <c r="AD52" s="4">
-        <v>7.9817334674681402E-12</v>
+        <v>2.6769030058050628E-12</v>
       </c>
       <c r="AE52" s="4">
-        <v>1.5509893023711385E-9</v>
+        <v>2.1258880839452261E-14</v>
       </c>
       <c r="AF52" s="4">
         <v>0</v>
@@ -4556,13 +4548,13 @@
         <v>47</v>
       </c>
       <c r="AC53" s="4">
-        <v>7.2711272327232351E-12</v>
+        <v>2.742629311545888E-12</v>
       </c>
       <c r="AD53" s="4">
-        <v>7.6276766509117648E-12</v>
+        <v>2.8466804450645202E-12</v>
       </c>
       <c r="AE53" s="4">
-        <v>1.5509893023588294E-9</v>
+        <v>2.1225732455225236E-14</v>
       </c>
       <c r="AF53" s="4">
         <v>0</v>
@@ -4591,13 +4583,13 @@
         <v>47</v>
       </c>
       <c r="R54" s="4">
-        <v>5.9037765047444811E-12</v>
+        <v>9.3402524755070049E-12</v>
       </c>
       <c r="S54" s="4">
-        <v>8.6128715579791731E-12</v>
+        <v>1.1628584509278611E-11</v>
       </c>
       <c r="T54" s="4">
-        <v>7.0441176549532398E-9</v>
+        <v>-8.9504787077681105E-11</v>
       </c>
       <c r="U54" s="4">
         <v>0</v>
@@ -4615,13 +4607,13 @@
         <v>47</v>
       </c>
       <c r="AC54" s="4">
-        <v>1.0865563147372554E-11</v>
+        <v>4.2662767062847773E-12</v>
       </c>
       <c r="AD54" s="4">
-        <v>1.1830412718495185E-11</v>
+        <v>4.3211783418227068E-12</v>
       </c>
       <c r="AE54" s="4">
-        <v>2.3087739807149781E-9</v>
+        <v>4.7041050173589859E-14</v>
       </c>
       <c r="AF54" s="4">
         <v>0</v>
@@ -4647,16 +4639,16 @@
         <v>2</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R55" s="4">
-        <v>6.1486760623649517E-11</v>
+        <v>4.2681488535526688E-11</v>
       </c>
       <c r="S55" s="4">
-        <v>0.45904024184280157</v>
+        <v>1.2468745834388977</v>
       </c>
       <c r="T55" s="4">
-        <v>0.85869988551546306</v>
+        <v>0.85778386393026929</v>
       </c>
       <c r="U55" s="4">
         <v>0</v>
@@ -4674,13 +4666,13 @@
         <v>47</v>
       </c>
       <c r="AC55" s="4">
-        <v>2.047570950074587E-11</v>
+        <v>8.6840884058054483E-12</v>
       </c>
       <c r="AD55" s="4">
-        <v>2.4693052101026953E-11</v>
+        <v>9.1433779097409518E-12</v>
       </c>
       <c r="AE55" s="4">
-        <v>4.3927558092226171E-9</v>
+        <v>7.6784083414157458E-14</v>
       </c>
       <c r="AF55" s="4">
         <v>0</v>
@@ -4706,16 +4698,16 @@
         <v>3</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R56" s="4">
-        <v>4.3868917418929311E-10</v>
+        <v>2.3264697673047909E-10</v>
       </c>
       <c r="S56" s="4">
-        <v>0.63012315189360835</v>
+        <v>1.711580971098777</v>
       </c>
       <c r="T56" s="4">
-        <v>1.0015575186726915</v>
+        <v>1.0006422333355138</v>
       </c>
       <c r="U56" s="4">
         <v>0</v>
@@ -4730,19 +4722,19 @@
         <v>21</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC56" s="2">
-        <v>2.0829333377614697E-10</v>
+        <v>2.2472729554781065E-10</v>
       </c>
       <c r="AD56" s="2">
-        <v>66.195054551932131</v>
+        <v>179.80325805893614</v>
       </c>
       <c r="AE56" s="2">
-        <v>70.004945047088611</v>
+        <v>180.30545296492505</v>
       </c>
       <c r="AF56" s="2">
-        <v>205.96406208934195</v>
+        <v>205.9644946625082</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
@@ -4768,13 +4760,13 @@
         <v>47</v>
       </c>
       <c r="R57" s="4">
-        <v>5.903776505124674E-12</v>
+        <v>9.3402524754410372E-12</v>
       </c>
       <c r="S57" s="4">
-        <v>8.612871556577102E-12</v>
+        <v>1.1628584509015878E-11</v>
       </c>
       <c r="T57" s="4">
-        <v>7.0441176549531463E-9</v>
+        <v>1.7890826200326421E-11</v>
       </c>
       <c r="U57" s="4">
         <v>0</v>
@@ -4792,13 +4784,13 @@
         <v>47</v>
       </c>
       <c r="AC57" s="4">
-        <v>2.0010667053907019E-11</v>
+        <v>8.9002714447278121E-12</v>
       </c>
       <c r="AD57" s="4">
-        <v>2.5778081774597114E-11</v>
+        <v>8.9602465655221241E-12</v>
       </c>
       <c r="AE57" s="4">
-        <v>4.3927558085180677E-9</v>
+        <v>7.6776306474030328E-14</v>
       </c>
       <c r="AF57" s="4">
         <v>0</v>
@@ -4812,13 +4804,13 @@
         <v>47</v>
       </c>
       <c r="R58" s="4">
-        <v>5.8970110009824453E-12</v>
+        <v>1.0112566556243677E-11</v>
       </c>
       <c r="S58" s="4">
-        <v>6.8541825405215636E-12</v>
+        <v>1.0547856510575096E-11</v>
       </c>
       <c r="T58" s="4">
-        <v>7.0441175988153181E-9</v>
+        <v>1.7897864232273213E-11</v>
       </c>
       <c r="U58" s="4">
         <v>0</v>
@@ -4836,13 +4828,13 @@
         <v>47</v>
       </c>
       <c r="AC58" s="4">
-        <v>1.0752021952426134E-11</v>
+        <v>4.1747793781841289E-12</v>
       </c>
       <c r="AD58" s="4">
-        <v>1.1751935139277799E-11</v>
+        <v>4.3166131564009004E-12</v>
       </c>
       <c r="AE58" s="4">
-        <v>2.3087739808257844E-9</v>
+        <v>4.7036870925302025E-14</v>
       </c>
       <c r="AF58" s="4">
         <v>0</v>
@@ -4862,19 +4854,19 @@
         <v>6</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R59" s="2">
-        <v>3.2875449546419018E-10</v>
+        <v>4.2247263448720834E-10</v>
       </c>
       <c r="S59" s="2">
-        <v>0.45904024294808132</v>
+        <v>1.2468745864135782</v>
       </c>
       <c r="T59" s="2">
-        <v>0.46438083233845417</v>
+        <v>0.46529982847361923</v>
       </c>
       <c r="U59" s="2">
-        <v>1.3198580152854611</v>
+        <v>1.3198578195510144</v>
       </c>
       <c r="W59" s="8">
         <v>20.052629470825195</v>
@@ -4889,13 +4881,13 @@
         <v>47</v>
       </c>
       <c r="AC59" s="4">
-        <v>1.0634561555381351E-11</v>
+        <v>4.2272870667528928E-12</v>
       </c>
       <c r="AD59" s="4">
-        <v>1.2007903456954349E-11</v>
+        <v>4.1683934517224471E-12</v>
       </c>
       <c r="AE59" s="4">
-        <v>2.3087739808564955E-9</v>
+        <v>4.7043410010292804E-14</v>
       </c>
       <c r="AF59" s="4">
         <v>0</v>
@@ -4915,13 +4907,13 @@
         <v>47</v>
       </c>
       <c r="R60" s="4">
-        <v>5.9709552186181444E-12</v>
+        <v>8.866984004059345E-12</v>
       </c>
       <c r="S60" s="4">
-        <v>7.2564216789905382E-12</v>
+        <v>1.2354100579441702E-11</v>
       </c>
       <c r="T60" s="4">
-        <v>7.0441176072904204E-9</v>
+        <v>1.789816836230463E-11</v>
       </c>
       <c r="U60" s="4">
         <v>0</v>
@@ -4939,13 +4931,13 @@
         <v>47</v>
       </c>
       <c r="AC60" s="4">
-        <v>1.0634561640014852E-11</v>
+        <v>4.2272870668332844E-12</v>
       </c>
       <c r="AD60" s="4">
-        <v>1.200790353173799E-11</v>
+        <v>4.1683934380443435E-12</v>
       </c>
       <c r="AE60" s="4">
-        <v>2.3087739808558937E-9</v>
+        <v>4.7047175157335237E-14</v>
       </c>
       <c r="AF60" s="4">
         <v>0</v>
@@ -4965,13 +4957,13 @@
         <v>47</v>
       </c>
       <c r="R61" s="4">
-        <v>2.7393148779807853E-12</v>
+        <v>4.8046081545749791E-12</v>
       </c>
       <c r="S61" s="4">
-        <v>3.0999388264699843E-12</v>
+        <v>5.4065199834779379E-12</v>
       </c>
       <c r="T61" s="4">
-        <v>3.5171837924121209E-9</v>
+        <v>8.9537166018553778E-12</v>
       </c>
       <c r="U61" s="4">
         <v>0</v>
@@ -4989,13 +4981,13 @@
         <v>47</v>
       </c>
       <c r="AC61" s="4">
-        <v>1.0678010193018393E-11</v>
+        <v>4.2068053008103963E-12</v>
       </c>
       <c r="AD61" s="4">
-        <v>1.1832289947866958E-11</v>
+        <v>4.2790624755158888E-12</v>
       </c>
       <c r="AE61" s="4">
-        <v>2.3087739807357764E-9</v>
+        <v>4.7047637110836701E-14</v>
       </c>
       <c r="AF61" s="4">
         <v>0</v>
@@ -5015,13 +5007,13 @@
         <v>47</v>
       </c>
       <c r="R62" s="4">
-        <v>5.9709552197857098E-12</v>
+        <v>8.8669840042885774E-12</v>
       </c>
       <c r="S62" s="4">
-        <v>7.2564216782466444E-12</v>
+        <v>1.2354100578964626E-11</v>
       </c>
       <c r="T62" s="4">
-        <v>7.0441176072922253E-9</v>
+        <v>1.789809627518846E-11</v>
       </c>
       <c r="U62" s="4">
         <v>0</v>
@@ -5039,13 +5031,13 @@
         <v>47</v>
       </c>
       <c r="AC62" s="4">
-        <v>7.1839244549785837E-12</v>
+        <v>2.8089883469604154E-12</v>
       </c>
       <c r="AD62" s="4">
-        <v>7.9860320586362745E-12</v>
+        <v>2.6541465867557475E-12</v>
       </c>
       <c r="AE62" s="4">
-        <v>1.5509893023952657E-9</v>
+        <v>2.1270900525128305E-14</v>
       </c>
       <c r="AF62" s="4">
         <v>0</v>
@@ -5065,13 +5057,13 @@
         <v>47</v>
       </c>
       <c r="R63" s="4">
-        <v>5.89701100051514E-12</v>
+        <v>1.0112566555932347E-11</v>
       </c>
       <c r="S63" s="4">
-        <v>6.8541825419860352E-12</v>
+        <v>1.0547856510771344E-11</v>
       </c>
       <c r="T63" s="4">
-        <v>7.0441175988157416E-9</v>
+        <v>1.789793630598699E-11</v>
       </c>
       <c r="U63" s="4">
         <v>0</v>
@@ -5083,13 +5075,13 @@
         <v>47</v>
       </c>
       <c r="AC63" s="4">
-        <v>1.0678010382588027E-11</v>
+        <v>4.206805302131869E-12</v>
       </c>
       <c r="AD63" s="4">
-        <v>1.1832290022401411E-11</v>
+        <v>4.2790624945773355E-12</v>
       </c>
       <c r="AE63" s="4">
-        <v>2.3087739807417399E-9</v>
+        <v>4.7047637110669083E-14</v>
       </c>
       <c r="AF63" s="4">
         <v>0</v>
@@ -5109,13 +5101,13 @@
         <v>47</v>
       </c>
       <c r="R64" s="4">
-        <v>5.2340183177712781E-12</v>
+        <v>9.2261985928375719E-12</v>
       </c>
       <c r="S64" s="4">
-        <v>6.5729259528503485E-12</v>
+        <v>1.1378130577194492E-11</v>
       </c>
       <c r="T64" s="4">
-        <v>7.0441175511529404E-9</v>
+        <v>1.7896764374832892E-11</v>
       </c>
       <c r="U64" s="4">
         <v>0</v>
@@ -5127,13 +5119,13 @@
         <v>47</v>
       </c>
       <c r="AC64" s="4">
-        <v>1.0752021974879332E-11</v>
+        <v>4.1747793624392113E-12</v>
       </c>
       <c r="AD64" s="4">
-        <v>1.1751935123488369E-11</v>
+        <v>4.3166131547064726E-12</v>
       </c>
       <c r="AE64" s="4">
-        <v>2.3087739808301333E-9</v>
+        <v>4.7040633328655635E-14</v>
       </c>
       <c r="AF64" s="4">
         <v>0</v>
@@ -5156,13 +5148,13 @@
         <v>47</v>
       </c>
       <c r="R65" s="4">
-        <v>5.2340183172113285E-12</v>
+        <v>9.2261985933098921E-12</v>
       </c>
       <c r="S65" s="4">
-        <v>6.5729259542150414E-12</v>
+        <v>1.1378130577487728E-11</v>
       </c>
       <c r="T65" s="4">
-        <v>7.0441175511544359E-9</v>
+        <v>1.7896836384926553E-11</v>
       </c>
       <c r="U65" s="4">
         <v>0</v>
@@ -5174,13 +5166,13 @@
         <v>47</v>
       </c>
       <c r="AC65" s="4">
-        <v>2.0010667190276428E-11</v>
+        <v>8.9002714859301954E-12</v>
       </c>
       <c r="AD65" s="4">
-        <v>2.5778081870291984E-11</v>
+        <v>8.9602465701813223E-12</v>
       </c>
       <c r="AE65" s="4">
-        <v>4.392755808513653E-9</v>
+        <v>7.6772647848885515E-14</v>
       </c>
       <c r="AF65" s="4">
         <v>0</v>
@@ -5200,13 +5192,13 @@
         <v>47</v>
       </c>
       <c r="R66" s="4">
-        <v>3.2006087841159239E-12</v>
+        <v>5.3304181200010478E-12</v>
       </c>
       <c r="S66" s="4">
-        <v>2.7662123201447122E-12</v>
+        <v>4.7783112302492094E-12</v>
       </c>
       <c r="T66" s="4">
-        <v>3.5171837812213255E-9</v>
+        <v>8.950563772246825E-12</v>
       </c>
       <c r="U66" s="4">
         <v>0</v>
@@ -5218,13 +5210,13 @@
         <v>47</v>
       </c>
       <c r="AC66" s="4">
-        <v>1.086556333140866E-11</v>
+        <v>4.2662767190595996E-12</v>
       </c>
       <c r="AD66" s="4">
-        <v>1.1830412706082513E-11</v>
+        <v>4.3211783346339902E-12</v>
       </c>
       <c r="AE66" s="4">
-        <v>2.3087739807139706E-9</v>
+        <v>4.7044814077559869E-14</v>
       </c>
       <c r="AF66" s="4">
         <v>0</v>
@@ -5244,13 +5236,13 @@
         <v>47</v>
       </c>
       <c r="R67" s="4">
-        <v>2.7375502972638218E-12</v>
+        <v>4.6988897223655253E-12</v>
       </c>
       <c r="S67" s="4">
-        <v>3.1004350583961531E-12</v>
+        <v>5.5632503293509372E-12</v>
       </c>
       <c r="T67" s="4">
-        <v>3.517183794536786E-9</v>
+        <v>8.9537625510412987E-12</v>
       </c>
       <c r="U67" s="4">
         <v>0</v>
@@ -5259,13 +5251,13 @@
         <v>46</v>
       </c>
       <c r="AB67" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AD67" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AE67" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AF67" s="2" t="s">
         <v>63</v>
@@ -5285,13 +5277,13 @@
         <v>47</v>
       </c>
       <c r="R68" s="4">
-        <v>2.8941677557144669E-12</v>
+        <v>5.2410247306980035E-12</v>
       </c>
       <c r="S68" s="4">
-        <v>3.2416959562389951E-12</v>
+        <v>5.0983516478548853E-12</v>
       </c>
       <c r="T68" s="4">
-        <v>3.5171838057273887E-9</v>
+        <v>8.9540192702430392E-12</v>
       </c>
       <c r="U68" s="4">
         <v>0</v>
@@ -5335,16 +5327,16 @@
         <v>46</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="W69" s="2" t="s">
         <v>10</v>
@@ -5362,16 +5354,16 @@
         <v>1</v>
       </c>
       <c r="AB69" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC69" s="4">
-        <v>2.7613599220002825E-10</v>
+        <v>1.4712746931921649E-10</v>
       </c>
       <c r="AD69" s="4">
-        <v>3.4107807042267797E-3</v>
+        <v>9.2645817737213344E-3</v>
       </c>
       <c r="AE69" s="2">
-        <v>3.9475450160860268E-3</v>
+        <v>4.5641771733822131E-3</v>
       </c>
       <c r="AF69" s="2">
         <v>0</v>
@@ -5419,16 +5411,16 @@
         <v>2</v>
       </c>
       <c r="AB70" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC70" s="4">
-        <v>5.5173510480553109E-11</v>
+        <v>6.067942903577912E-11</v>
       </c>
       <c r="AD70" s="4">
-        <v>3.1049412043609162E-3</v>
+        <v>8.4338421196469039E-3</v>
       </c>
       <c r="AE70" s="2">
-        <v>1.7556110728078644E-3</v>
+        <v>2.2200802564897319E-3</v>
       </c>
       <c r="AF70" s="2">
         <v>0</v>
@@ -5451,16 +5443,16 @@
         <v>1</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R71" s="4">
-        <v>1.2638939689167759E-11</v>
+        <v>6.7915295679081719E-12</v>
       </c>
       <c r="S71" s="4">
-        <v>38.977279780102947</v>
+        <v>105.87259030366874</v>
       </c>
       <c r="T71" s="4">
-        <v>44.402367292788867</v>
+        <v>16.5189754084603</v>
       </c>
       <c r="U71" s="4">
         <v>0</v>
@@ -5484,13 +5476,13 @@
         <v>47</v>
       </c>
       <c r="AC71" s="4">
-        <v>5.5015412557406818E-13</v>
+        <v>5.0213556196316905E-13</v>
       </c>
       <c r="AD71" s="4">
-        <v>1.3905160163121521E-12</v>
+        <v>7.361623820588307E-13</v>
       </c>
       <c r="AE71" s="4">
-        <v>2.6406312310340954E-9</v>
+        <v>-2.2015628597307386E-14</v>
       </c>
       <c r="AF71" s="4">
         <v>0</v>
@@ -5513,16 +5505,16 @@
         <v>2</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R72" s="4">
-        <v>6.99315266813526E-11</v>
+        <v>8.6924108996526781E-12</v>
       </c>
       <c r="S72" s="4">
-        <v>75.554525899762737</v>
+        <v>205.22605517465013</v>
       </c>
       <c r="T72" s="4">
-        <v>68.783806090649406</v>
+        <v>20.271171628542586</v>
       </c>
       <c r="U72" s="4">
         <v>0</v>
@@ -5543,16 +5535,16 @@
         <v>4</v>
       </c>
       <c r="AB72" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC72" s="4">
-        <v>2.45916421931679E-10</v>
+        <v>1.4626497227131128E-10</v>
       </c>
       <c r="AD72" s="4">
-        <v>1.0014038339304578E-3</v>
+        <v>2.720090129029597E-3</v>
       </c>
       <c r="AE72" s="2">
-        <v>5.2799739366766768E-4</v>
+        <v>5.5165538212690831E-4</v>
       </c>
       <c r="AF72" s="2">
         <v>0</v>
@@ -5575,16 +5567,16 @@
         <v>3</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R73" s="4">
-        <v>1.1156844144996111E-10</v>
+        <v>7.7216051577403081E-12</v>
       </c>
       <c r="S73" s="4">
-        <v>100.80934479431363</v>
+        <v>273.82481661333338</v>
       </c>
       <c r="T73" s="4">
-        <v>148.70263606902606</v>
+        <v>60.047514904823096</v>
       </c>
       <c r="U73" s="4">
         <v>0</v>
@@ -5605,16 +5597,16 @@
         <v>5</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC73" s="4">
-        <v>9.2456296620103485E-12</v>
+        <v>1.170789041735454E-10</v>
       </c>
       <c r="AD73" s="4">
-        <v>4.0249228717559593E-3</v>
+        <v>1.0932754243376405E-2</v>
       </c>
       <c r="AE73" s="2">
-        <v>4.9519235050572248E-3</v>
+        <v>5.4675541418295016E-3</v>
       </c>
       <c r="AF73" s="2">
         <v>0</v>
@@ -5640,13 +5632,13 @@
         <v>47</v>
       </c>
       <c r="R74" s="4">
-        <v>1.7542496348447188E-11</v>
+        <v>3.6302869813423796E-13</v>
       </c>
       <c r="S74" s="4">
-        <v>1.8688492216395512E-11</v>
+        <v>1.3600247236851992E-12</v>
       </c>
       <c r="T74" s="4">
-        <v>5.2806492320263175E-9</v>
+        <v>-1.7021461494893955E-12</v>
       </c>
       <c r="U74" s="4">
         <v>0</v>
@@ -5658,13 +5650,13 @@
         <v>47</v>
       </c>
       <c r="AC74" s="4">
-        <v>8.3128954367417658E-13</v>
+        <v>5.5976314701963254E-13</v>
       </c>
       <c r="AD74" s="4">
-        <v>7.7450052238810641E-13</v>
+        <v>6.3930174842670542E-13</v>
       </c>
       <c r="AE74" s="4">
-        <v>2.6405796419571731E-9</v>
+        <v>1.1743821832804619E-15</v>
       </c>
       <c r="AF74" s="4">
         <v>0</v>
@@ -5675,16 +5667,16 @@
         <v>5</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R75" s="4">
-        <v>1.1557013882598002E-11</v>
+        <v>4.2089646598469228E-10</v>
       </c>
       <c r="S75" s="4">
-        <v>38.97727977028616</v>
+        <v>105.87259035757397</v>
       </c>
       <c r="T75" s="4">
-        <v>29.86999216291877</v>
+        <v>8.304766809857151</v>
       </c>
       <c r="U75" s="4">
         <v>0</v>
@@ -5699,16 +5691,16 @@
         <v>7</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC75" s="4">
-        <v>2.575562683367708E-10</v>
+        <v>1.9540384192053648E-10</v>
       </c>
       <c r="AD75" s="4">
-        <v>1.0014049763422224E-3</v>
+        <v>2.7200902463126652E-3</v>
       </c>
       <c r="AE75" s="2">
-        <v>3.7698006800130994E-4</v>
+        <v>3.7310582578773722E-4</v>
       </c>
       <c r="AF75" s="2">
         <v>0</v>
@@ -5725,16 +5717,16 @@
         <v>6</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R76" s="4">
-        <v>2.7521433636405712E-10</v>
+        <v>9.5374705581269353E-11</v>
       </c>
       <c r="S76" s="4">
-        <v>75.55452581694091</v>
+        <v>205.22605489664696</v>
       </c>
       <c r="T76" s="4">
-        <v>46.655378643686603</v>
+        <v>85.861984974529491</v>
       </c>
       <c r="U76" s="4">
         <v>0</v>
@@ -5752,13 +5744,13 @@
         <v>47</v>
       </c>
       <c r="AC76" s="4">
-        <v>7.6796091961515036E-13</v>
+        <v>5.4394076766919244E-13</v>
       </c>
       <c r="AD76" s="4">
-        <v>8.2682242521523063E-13</v>
+        <v>6.6221976706936736E-13</v>
       </c>
       <c r="AE76" s="4">
-        <v>2.6405884588251902E-9</v>
+        <v>1.1324289756744725E-15</v>
       </c>
       <c r="AF76" s="4">
         <v>0</v>
@@ -5778,13 +5770,13 @@
         <v>47</v>
       </c>
       <c r="R77" s="4">
-        <v>1.6280215846832985E-11</v>
+        <v>1.6567025852840565E-12</v>
       </c>
       <c r="S77" s="4">
-        <v>2.044500474726309E-11</v>
+        <v>4.1114842558188372E-13</v>
       </c>
       <c r="T77" s="4">
-        <v>5.2806492320786094E-9</v>
+        <v>3.2491711038276634E-13</v>
       </c>
       <c r="U77" s="4">
         <v>0</v>
@@ -5802,13 +5794,13 @@
         <v>47</v>
       </c>
       <c r="AC77" s="4">
-        <v>8.9030472176266414E-13</v>
+        <v>6.0841415266416357E-13</v>
       </c>
       <c r="AD77" s="4">
-        <v>8.9194579437326065E-13</v>
+        <v>6.3144444601359744E-13</v>
       </c>
       <c r="AE77" s="4">
-        <v>2.6401441497506667E-9</v>
+        <v>1.6131175795524217E-15</v>
       </c>
       <c r="AF77" s="4">
         <v>0</v>
@@ -5828,13 +5820,13 @@
         <v>47</v>
       </c>
       <c r="R78" s="4">
-        <v>1.729241804606645E-11</v>
+        <v>3.7603509072373699E-13</v>
       </c>
       <c r="S78" s="4">
-        <v>1.9079622898059653E-11</v>
+        <v>3.5003043522361054E-13</v>
       </c>
       <c r="T78" s="4">
-        <v>5.2806492311725472E-9</v>
+        <v>2.1019615945729998E-13</v>
       </c>
       <c r="U78" s="4">
         <v>0</v>
@@ -5849,16 +5841,16 @@
         <v>10</v>
       </c>
       <c r="AB78" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC78" s="4">
-        <v>1.6059162799142575E-10</v>
+        <v>1.4959732890042041E-10</v>
       </c>
       <c r="AD78" s="4">
-        <v>1.0014051092701191E-3</v>
+        <v>2.7200900724605572E-3</v>
       </c>
       <c r="AE78" s="2">
-        <v>3.3250176278863609E-4</v>
+        <v>2.984558649540024E-4</v>
       </c>
       <c r="AF78" s="2">
         <v>0</v>
@@ -5875,16 +5867,16 @@
         <v>9</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R79" s="4">
-        <v>1.2046464682693977E-11</v>
+        <v>6.3106516212765362E-12</v>
       </c>
       <c r="S79" s="4">
-        <v>38.977279775164575</v>
+        <v>105.87259033996585</v>
       </c>
       <c r="T79" s="4">
-        <v>36.267413337859985</v>
+        <v>54.84489226811921</v>
       </c>
       <c r="U79" s="4">
         <v>0</v>
@@ -5899,16 +5891,16 @@
         <v>11</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC79" s="4">
-        <v>4.0466711260751871E-11</v>
+        <v>4.5989113381792824E-11</v>
       </c>
       <c r="AD79" s="4">
-        <v>3.4107806631071768E-3</v>
+        <v>9.2645818636245391E-3</v>
       </c>
       <c r="AE79" s="2">
-        <v>2.1829513114258467E-3</v>
+        <v>1.9208312421267124E-3</v>
       </c>
       <c r="AF79" s="2">
         <v>0</v>
@@ -5928,13 +5920,13 @@
         <v>47</v>
       </c>
       <c r="R80" s="4">
-        <v>1.7238899289444766E-11</v>
+        <v>2.5355684443701613E-12</v>
       </c>
       <c r="S80" s="4">
-        <v>1.9099643576872552E-11</v>
+        <v>4.3314297283094362E-13</v>
       </c>
       <c r="T80" s="4">
-        <v>5.2806492317492327E-9</v>
+        <v>3.3228744157684136E-13</v>
       </c>
       <c r="U80" s="4">
         <v>0</v>
@@ -5952,13 +5944,13 @@
         <v>47</v>
       </c>
       <c r="AC80" s="4">
-        <v>8.2157860520790674E-13</v>
+        <v>5.4292797213286278E-13</v>
       </c>
       <c r="AD80" s="4">
-        <v>8.3084475691043166E-13</v>
+        <v>5.8333498906716572E-13</v>
       </c>
       <c r="AE80" s="4">
-        <v>2.6404744124459926E-9</v>
+        <v>1.4233141260800081E-15</v>
       </c>
       <c r="AF80" s="4">
         <v>0</v>
@@ -5975,19 +5967,19 @@
         <v>11</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R81" s="2">
-        <v>2.7672753984917182E-10</v>
+        <v>3.6350852980856496E-10</v>
       </c>
       <c r="S81" s="2">
-        <v>38.97727975404888</v>
+        <v>105.8725903266463</v>
       </c>
       <c r="T81" s="2">
-        <v>26.317907623326231</v>
+        <v>57.189416451737706</v>
       </c>
       <c r="U81" s="2">
-        <v>160.09325491349443</v>
+        <v>160.09368550653417</v>
       </c>
       <c r="W81" s="8">
         <v>32.099002838134766</v>
@@ -6002,13 +5994,13 @@
         <v>47</v>
       </c>
       <c r="AC81" s="4">
-        <v>8.9595455138866564E-13</v>
+        <v>6.181704620101413E-13</v>
       </c>
       <c r="AD81" s="4">
-        <v>8.9962440293845035E-13</v>
+        <v>6.3329371168619457E-13</v>
       </c>
       <c r="AE81" s="4">
-        <v>2.6401080955169782E-9</v>
+        <v>1.6281021480403285E-15</v>
       </c>
       <c r="AF81" s="4">
         <v>0</v>
@@ -6028,13 +6020,13 @@
         <v>47</v>
       </c>
       <c r="R82" s="4">
-        <v>1.7253453703254134E-11</v>
+        <v>3.6892556696297059E-13</v>
       </c>
       <c r="S82" s="4">
-        <v>1.9143588904960484E-11</v>
+        <v>3.8376161040958887E-13</v>
       </c>
       <c r="T82" s="4">
-        <v>5.2806492318049483E-9</v>
+        <v>2.1882404591898246E-13</v>
       </c>
       <c r="U82" s="4">
         <v>0</v>
@@ -6052,13 +6044,13 @@
         <v>47</v>
       </c>
       <c r="AC82" s="4">
-        <v>8.7466029612357114E-13</v>
+        <v>6.1923959980532889E-13</v>
       </c>
       <c r="AD82" s="4">
-        <v>9.0332875217639826E-13</v>
+        <v>6.1293744270878353E-13</v>
       </c>
       <c r="AE82" s="4">
-        <v>2.6401496646729426E-9</v>
+        <v>1.6106110649230657E-15</v>
       </c>
       <c r="AF82" s="4">
         <v>0</v>
@@ -6078,13 +6070,13 @@
         <v>47</v>
       </c>
       <c r="R83" s="4">
-        <v>1.6335573180578403E-11</v>
+        <v>2.771128635018634E-13</v>
       </c>
       <c r="S83" s="4">
-        <v>2.0714519165043111E-11</v>
+        <v>4.4798472540347037E-12</v>
       </c>
       <c r="T83" s="4">
-        <v>5.2806492312304349E-9</v>
+        <v>9.7482475131073311E-14</v>
       </c>
       <c r="U83" s="4">
         <v>0</v>
@@ -6102,13 +6094,13 @@
         <v>47</v>
       </c>
       <c r="AC83" s="4">
-        <v>8.4428994699911496E-13</v>
+        <v>5.882380099672602E-13</v>
       </c>
       <c r="AD83" s="4">
-        <v>1.0432175043274501E-12</v>
+        <v>7.5855920629891685E-13</v>
       </c>
       <c r="AE83" s="4">
-        <v>2.6401186200114943E-9</v>
+        <v>1.5743351384120028E-15</v>
       </c>
       <c r="AF83" s="4">
         <v>0</v>
@@ -6128,13 +6120,13 @@
         <v>47</v>
       </c>
       <c r="R84" s="4">
-        <v>1.7203620320289605E-11</v>
+        <v>3.6525288564119585E-13</v>
       </c>
       <c r="S84" s="4">
-        <v>1.919496544257994E-11</v>
+        <v>3.617382496718703E-13</v>
       </c>
       <c r="T84" s="4">
-        <v>5.2806492315052723E-9</v>
+        <v>2.0252842500420522E-13</v>
       </c>
       <c r="U84" s="4">
         <v>0</v>
@@ -6152,13 +6144,13 @@
         <v>47</v>
       </c>
       <c r="AC84" s="4">
-        <v>1.3559703858628461E-12</v>
+        <v>7.8823853028483254E-13</v>
       </c>
       <c r="AD84" s="4">
-        <v>7.8465198218873976E-13</v>
+        <v>5.5881665681535061E-13</v>
       </c>
       <c r="AE84" s="4">
-        <v>2.6400574667712148E-9</v>
+        <v>1.465731881446049E-15</v>
       </c>
       <c r="AF84" s="4">
         <v>0</v>
@@ -6178,13 +6170,13 @@
         <v>47</v>
       </c>
       <c r="R85" s="4">
-        <v>1.7204984497696878E-11</v>
+        <v>3.3827744874180638E-13</v>
       </c>
       <c r="S85" s="4">
-        <v>1.9136012714238014E-11</v>
+        <v>3.6545851587193178E-13</v>
       </c>
       <c r="T85" s="4">
-        <v>5.2806492314512731E-9</v>
+        <v>3.159104920182268E-13</v>
       </c>
       <c r="U85" s="4">
         <v>0</v>
@@ -6199,19 +6191,19 @@
         <v>17</v>
       </c>
       <c r="AB85" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC85" s="4">
-        <v>1.9234321915868044E-10</v>
+        <v>1.7382146274036377E-10</v>
       </c>
       <c r="AD85" s="4">
-        <v>1.001408543112509E-3</v>
+        <v>2.7200883630998786E-3</v>
       </c>
       <c r="AE85" s="2">
-        <v>3.1760433816034801E-4</v>
+        <v>2.6055751874675201E-4</v>
       </c>
       <c r="AF85" s="2">
-        <v>5.4360063061752867E-3</v>
+        <v>5.436001318951114E-3</v>
       </c>
     </row>
     <row r="86" spans="12:32" x14ac:dyDescent="0.25">
@@ -6225,16 +6217,16 @@
         <v>46</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="R86" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W86" s="8">
         <v>27.809391021728516</v>
@@ -6246,16 +6238,16 @@
         <v>18</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC86" s="2">
-        <v>4.1638986394073749E-11</v>
+        <v>2.8959237067567591E-11</v>
       </c>
       <c r="AD86" s="2">
-        <v>3.1049398928062748E-3</v>
+        <v>8.4338411635407357E-3</v>
       </c>
       <c r="AE86" s="2">
-        <v>9.6897385572386279E-4</v>
+        <v>7.7363207313573131E-4</v>
       </c>
       <c r="AF86" s="2">
         <v>0</v>
@@ -6272,16 +6264,16 @@
         <v>19</v>
       </c>
       <c r="AB87" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC87" s="4">
-        <v>3.4388480124871365E-11</v>
+        <v>4.5641475622914476E-11</v>
       </c>
       <c r="AD87" s="4">
-        <v>3.1049423837348489E-3</v>
+        <v>8.4338443594651862E-3</v>
       </c>
       <c r="AE87" s="2">
-        <v>1.2189383085550946E-3</v>
+        <v>1.1485162758075736E-3</v>
       </c>
       <c r="AF87" s="2">
         <v>0</v>
@@ -6301,13 +6293,13 @@
         <v>47</v>
       </c>
       <c r="AC88" s="4">
-        <v>8.4228393394320513E-13</v>
+        <v>5.7147356977797591E-13</v>
       </c>
       <c r="AD88" s="4">
-        <v>7.7183678802974156E-13</v>
+        <v>5.6242524733845443E-13</v>
       </c>
       <c r="AE88" s="4">
-        <v>2.6405218745341791E-9</v>
+        <v>1.388018278519407E-15</v>
       </c>
       <c r="AF88" s="4">
         <v>0</v>
@@ -6327,13 +6319,13 @@
         <v>47</v>
       </c>
       <c r="AC89" s="4">
-        <v>9.0611698029589952E-13</v>
+        <v>6.1443851440983352E-13</v>
       </c>
       <c r="AD89" s="4">
-        <v>8.2764164865817011E-13</v>
+        <v>5.3466098861753538E-13</v>
       </c>
       <c r="AE89" s="4">
-        <v>2.6401767826986892E-9</v>
+        <v>1.6761980774833462E-15</v>
       </c>
       <c r="AF89" s="4">
         <v>0</v>
@@ -6350,16 +6342,16 @@
         <v>22</v>
       </c>
       <c r="AB90" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC90" s="4">
-        <v>3.5720521479576015E-10</v>
+        <v>2.5742197430488739E-10</v>
       </c>
       <c r="AD90" s="4">
-        <v>1.0014059841603959E-3</v>
+        <v>2.7200903523194706E-3</v>
       </c>
       <c r="AE90" s="2">
-        <v>3.2056879910279785E-4</v>
+        <v>4.23572466832547E-4</v>
       </c>
       <c r="AF90" s="2">
         <v>0</v>
@@ -6379,13 +6371,13 @@
         <v>47</v>
       </c>
       <c r="AC91" s="4">
-        <v>7.957447530668827E-13</v>
+        <v>5.2744671567180251E-13</v>
       </c>
       <c r="AD91" s="4">
-        <v>8.1846865750415977E-13</v>
+        <v>5.9522456422794695E-13</v>
       </c>
       <c r="AE91" s="4">
-        <v>2.6405384582923132E-9</v>
+        <v>1.2988992061200973E-15</v>
       </c>
       <c r="AF91" s="4">
         <v>0</v>
@@ -6405,13 +6397,13 @@
         <v>47</v>
       </c>
       <c r="AC92" s="4">
-        <v>8.5156005369734516E-13</v>
+        <v>5.9644001031765302E-13</v>
       </c>
       <c r="AD92" s="4">
-        <v>1.0571288170858591E-12</v>
+        <v>7.7039947207676929E-13</v>
       </c>
       <c r="AE92" s="4">
-        <v>2.6400795889642639E-9</v>
+        <v>1.5893596683131562E-15</v>
       </c>
       <c r="AF92" s="4">
         <v>0</v>
@@ -6431,13 +6423,13 @@
         <v>47</v>
       </c>
       <c r="AC93" s="4">
-        <v>8.4689938820878837E-13</v>
+        <v>5.9178511700613005E-13</v>
       </c>
       <c r="AD93" s="4">
-        <v>1.0577582788461184E-12</v>
+        <v>7.6777616410139864E-13</v>
       </c>
       <c r="AE93" s="4">
-        <v>2.640084385097646E-9</v>
+        <v>1.5877107597663187E-15</v>
       </c>
       <c r="AF93" s="4">
         <v>0</v>
@@ -6454,16 +6446,16 @@
         <v>26</v>
       </c>
       <c r="AB94" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC94" s="2">
-        <v>1.7253683136766378E-10</v>
+        <v>1.5461687469357949E-10</v>
       </c>
       <c r="AD94" s="2">
-        <v>1.0014085262482139E-3</v>
+        <v>2.7200901148361424E-3</v>
       </c>
       <c r="AE94" s="2">
-        <v>3.4391100745174871E-4</v>
+        <v>3.2716351868893382E-4</v>
       </c>
       <c r="AF94" s="2">
         <v>0</v>
@@ -6483,13 +6475,13 @@
         <v>47</v>
       </c>
       <c r="AC95" s="4">
-        <v>7.809558662890187E-13</v>
+        <v>5.3504428641696831E-13</v>
       </c>
       <c r="AD95" s="4">
-        <v>9.8021374574883617E-13</v>
+        <v>6.8208899000718827E-13</v>
       </c>
       <c r="AE95" s="4">
-        <v>2.6404366368399388E-9</v>
+        <v>1.4442604233463521E-15</v>
       </c>
       <c r="AF95" s="4">
         <v>0</v>
@@ -6500,16 +6492,16 @@
         <v>28</v>
       </c>
       <c r="AB96" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC96" s="4">
-        <v>1.5538951492779647E-10</v>
+        <v>1.4198662210749002E-10</v>
       </c>
       <c r="AD96" s="4">
-        <v>1.001404760938509E-3</v>
+        <v>2.7200900983650584E-3</v>
       </c>
       <c r="AE96" s="2">
-        <v>3.4452187690500589E-4</v>
+        <v>2.9411209492285302E-4</v>
       </c>
       <c r="AF96" s="2">
         <v>0</v>
@@ -6523,13 +6515,13 @@
         <v>47</v>
       </c>
       <c r="AC97" s="4">
-        <v>8.0753941474186068E-13</v>
+        <v>5.5299396903820673E-13</v>
       </c>
       <c r="AD97" s="4">
-        <v>8.3655540415563503E-13</v>
+        <v>5.728350172036371E-13</v>
       </c>
       <c r="AE97" s="4">
-        <v>2.6404825104447293E-9</v>
+        <v>1.4091590863498984E-15</v>
       </c>
       <c r="AF97" s="4">
         <v>0</v>
@@ -6540,16 +6532,16 @@
         <v>30</v>
       </c>
       <c r="AB98" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC98" s="4">
-        <v>3.2140915809201735E-10</v>
+        <v>2.2478194674332326E-10</v>
       </c>
       <c r="AD98" s="4">
-        <v>1.0014059995641627E-3</v>
+        <v>2.7200903450647937E-3</v>
       </c>
       <c r="AE98" s="2">
-        <v>3.7984750692580591E-4</v>
+        <v>4.1532491562601756E-4</v>
       </c>
       <c r="AF98" s="2">
         <v>0</v>
@@ -6560,16 +6552,16 @@
         <v>31</v>
       </c>
       <c r="AB99" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC99" s="4">
-        <v>3.7179160668411618E-11</v>
+        <v>5.0657527397651192E-11</v>
       </c>
       <c r="AD99" s="4">
-        <v>3.104942659464518E-3</v>
+        <v>8.4338449055542837E-3</v>
       </c>
       <c r="AE99" s="2">
-        <v>1.2701825165815615E-3</v>
+        <v>1.2168732406540529E-3</v>
       </c>
       <c r="AF99" s="2">
         <v>0</v>
@@ -6580,13 +6572,13 @@
         <v>46</v>
       </c>
       <c r="AB100" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AD100" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AE100" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AF100" s="2" t="s">
         <v>64</v>
@@ -6639,13 +6631,13 @@
         <v>47</v>
       </c>
       <c r="AC102" s="4">
-        <v>2.9337713565845167E-13</v>
+        <v>1.833943811868559E-11</v>
       </c>
       <c r="AD102" s="4">
-        <v>3.8855689840382126E-13</v>
+        <v>3.9454567472946923E-13</v>
       </c>
       <c r="AE102" s="4">
-        <v>3.5233435862829192E-9</v>
+        <v>-1.3633404538085114E-11</v>
       </c>
       <c r="AF102" s="4">
         <v>0</v>
@@ -6668,16 +6660,16 @@
         <v>2</v>
       </c>
       <c r="AB103" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC103" s="4">
-        <v>5.509529324882491E-11</v>
+        <v>5.284652858901633E-11</v>
       </c>
       <c r="AD103" s="4">
-        <v>3.2569901097126056E-2</v>
+        <v>8.8468457627773084E-2</v>
       </c>
       <c r="AE103" s="4">
-        <v>3.8017539676308144E-2</v>
+        <v>4.9414346912699192E-2</v>
       </c>
       <c r="AF103" s="4">
         <v>0</v>
@@ -6700,16 +6692,16 @@
         <v>3</v>
       </c>
       <c r="AB104" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC104" s="4">
-        <v>1.2872637115791884E-10</v>
+        <v>1.6302576815993505E-10</v>
       </c>
       <c r="AD104" s="4">
-        <v>3.6472008071095616E-2</v>
+        <v>9.9067611085605287E-2</v>
       </c>
       <c r="AE104" s="4">
-        <v>6.5460849358687359E-2</v>
+        <v>8.1763577165759146E-2</v>
       </c>
       <c r="AF104" s="4">
         <v>0</v>
@@ -6735,13 +6727,13 @@
         <v>47</v>
       </c>
       <c r="AC105" s="4">
-        <v>2.9337713566140496E-13</v>
+        <v>1.8339438118239947E-11</v>
       </c>
       <c r="AD105" s="4">
-        <v>3.885568983712801E-13</v>
+        <v>3.9454567469576485E-13</v>
       </c>
       <c r="AE105" s="4">
-        <v>3.5233435862831851E-9</v>
+        <v>8.4105508048223285E-13</v>
       </c>
       <c r="AF105" s="4">
         <v>0</v>
@@ -6764,16 +6756,16 @@
         <v>5</v>
       </c>
       <c r="AB106" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC106" s="4">
-        <v>1.0907454691509207E-10</v>
+        <v>6.1177711755907493E-11</v>
       </c>
       <c r="AD106" s="4">
-        <v>4.0925510285200112E-2</v>
+        <v>0.11116449958807657</v>
       </c>
       <c r="AE106" s="4">
-        <v>3.9005113048545974E-2</v>
+        <v>5.0634107555709004E-2</v>
       </c>
       <c r="AF106" s="4">
         <v>0</v>
@@ -6787,13 +6779,13 @@
         <v>47</v>
       </c>
       <c r="AC107" s="4">
-        <v>2.8126081345790425E-13</v>
+        <v>1.6717406227312732E-11</v>
       </c>
       <c r="AD107" s="4">
-        <v>3.5900927043919438E-13</v>
+        <v>3.5626666143900086E-13</v>
       </c>
       <c r="AE107" s="4">
-        <v>3.5233428063906791E-9</v>
+        <v>1.7733674638148738E-12</v>
       </c>
       <c r="AF107" s="4">
         <v>0</v>
@@ -6813,13 +6805,13 @@
         <v>47</v>
       </c>
       <c r="AC108" s="4">
-        <v>2.9353296614826389E-13</v>
+        <v>1.817325117792665E-11</v>
       </c>
       <c r="AD108" s="4">
-        <v>3.337499177924904E-13</v>
+        <v>1.9321444324641996E-11</v>
       </c>
       <c r="AE108" s="4">
-        <v>3.5233422470371679E-9</v>
+        <v>9.9439847775289728E-13</v>
       </c>
       <c r="AF108" s="4">
         <v>0</v>
@@ -6836,16 +6828,16 @@
         <v>8</v>
       </c>
       <c r="AB109" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC109" s="4">
-        <v>2.1613349003659012E-11</v>
+        <v>1.0155272066684514E-11</v>
       </c>
       <c r="AD109" s="4">
-        <v>3.6472007897004138E-2</v>
+        <v>9.9067610484082594E-2</v>
       </c>
       <c r="AE109" s="4">
-        <v>2.4443958045069436E-2</v>
+        <v>1.8061009204021882E-2</v>
       </c>
       <c r="AF109" s="4">
         <v>0</v>
@@ -6865,13 +6857,13 @@
         <v>47</v>
       </c>
       <c r="AC110" s="4">
-        <v>1.498360589953612E-13</v>
+        <v>9.1957590932476753E-12</v>
       </c>
       <c r="AD110" s="4">
-        <v>1.4959713450952201E-13</v>
+        <v>9.2627868899541808E-12</v>
       </c>
       <c r="AE110" s="4">
-        <v>1.7573097922766241E-9</v>
+        <v>6.2933502311015259E-13</v>
       </c>
       <c r="AF110" s="4">
         <v>0</v>
@@ -6891,13 +6883,13 @@
         <v>47</v>
       </c>
       <c r="AC111" s="4">
-        <v>2.769135977598559E-13</v>
+        <v>1.7423392151833573E-11</v>
       </c>
       <c r="AD111" s="4">
-        <v>3.3484430206352671E-13</v>
+        <v>2.1295652347720535E-11</v>
       </c>
       <c r="AE111" s="4">
-        <v>3.523340942789423E-9</v>
+        <v>1.1763775585789491E-12</v>
       </c>
       <c r="AF111" s="4">
         <v>0</v>
@@ -6917,13 +6909,13 @@
         <v>47</v>
       </c>
       <c r="AC112" s="4">
-        <v>2.8854643734770949E-13</v>
+        <v>1.7840995962097802E-11</v>
       </c>
       <c r="AD112" s="4">
-        <v>3.4604813437555895E-13</v>
+        <v>3.3085670621570713E-13</v>
       </c>
       <c r="AE112" s="4">
-        <v>3.5233422818780687E-9</v>
+        <v>1.003120080871737E-12</v>
       </c>
       <c r="AF112" s="4">
         <v>0</v>
@@ -6943,13 +6935,13 @@
         <v>47</v>
       </c>
       <c r="AC113" s="4">
-        <v>2.8258924815651964E-13</v>
+        <v>1.7809955104812541E-11</v>
       </c>
       <c r="AD113" s="4">
-        <v>3.2861162264500335E-13</v>
+        <v>2.1000837873032905E-11</v>
       </c>
       <c r="AE113" s="4">
-        <v>3.5233414672364736E-9</v>
+        <v>1.3338289783215902E-12</v>
       </c>
       <c r="AF113" s="4">
         <v>0</v>
@@ -6969,13 +6961,13 @@
         <v>47</v>
       </c>
       <c r="AC114" s="4">
-        <v>2.8258924815307844E-13</v>
+        <v>1.7809955105049735E-11</v>
       </c>
       <c r="AD114" s="4">
-        <v>3.2861162260364108E-13</v>
+        <v>2.1000837871819431E-11</v>
       </c>
       <c r="AE114" s="4">
-        <v>3.523341467236534E-9</v>
+        <v>1.3338652776892154E-12</v>
       </c>
       <c r="AF114" s="4">
         <v>0</v>
@@ -6995,13 +6987,13 @@
         <v>47</v>
       </c>
       <c r="AC115" s="4">
-        <v>2.8388955264512575E-13</v>
+        <v>1.7375261118745622E-11</v>
       </c>
       <c r="AD115" s="4">
-        <v>3.2863549589752781E-13</v>
+        <v>2.0969634976982157E-11</v>
       </c>
       <c r="AE115" s="4">
-        <v>3.5233415020743998E-9</v>
+        <v>1.3412504974309322E-12</v>
       </c>
       <c r="AF115" s="4">
         <v>0</v>
@@ -7021,13 +7013,13 @@
         <v>47</v>
       </c>
       <c r="AC116" s="4">
-        <v>1.4226805191446878E-13</v>
+        <v>8.5099704743956555E-12</v>
       </c>
       <c r="AD116" s="4">
-        <v>1.6709623537237576E-13</v>
+        <v>1.5471662474319156E-13</v>
       </c>
       <c r="AE116" s="4">
-        <v>1.757309875327877E-9</v>
+        <v>6.2512273351922039E-13</v>
       </c>
       <c r="AF116" s="4">
         <v>0</v>
@@ -7047,13 +7039,13 @@
         <v>47</v>
       </c>
       <c r="AC117" s="4">
-        <v>1.5501935637921033E-13</v>
+        <v>1.5209295939686112E-13</v>
       </c>
       <c r="AD117" s="4">
-        <v>1.3791419985764594E-13</v>
+        <v>7.7420928198626585E-12</v>
       </c>
       <c r="AE117" s="4">
-        <v>1.7573099614808155E-9</v>
+        <v>5.8466221263925444E-13</v>
       </c>
       <c r="AF117" s="4">
         <v>0</v>
@@ -7073,13 +7065,13 @@
         <v>47</v>
       </c>
       <c r="AC118" s="4">
-        <v>1.3755326044672428E-13</v>
+        <v>8.0200985603627851E-12</v>
       </c>
       <c r="AD118" s="4">
-        <v>1.6993666706913535E-13</v>
+        <v>1.6140033645501592E-13</v>
       </c>
       <c r="AE118" s="4">
-        <v>1.7573099210035211E-9</v>
+        <v>5.9327596715293796E-13</v>
       </c>
       <c r="AF118" s="4">
         <v>0</v>
@@ -7099,13 +7091,13 @@
         <v>47</v>
       </c>
       <c r="AC119" s="4">
-        <v>2.7691359773792915E-13</v>
+        <v>1.7423392151679097E-11</v>
       </c>
       <c r="AD119" s="4">
-        <v>3.3484430211137717E-13</v>
+        <v>2.1295652349044645E-11</v>
       </c>
       <c r="AE119" s="4">
-        <v>3.5233409427892501E-9</v>
+        <v>1.1763097751867774E-12</v>
       </c>
       <c r="AF119" s="4">
         <v>0</v>
@@ -7125,13 +7117,13 @@
         <v>47</v>
       </c>
       <c r="AC120" s="4">
-        <v>2.9353296618164192E-13</v>
+        <v>1.8173251178837789E-11</v>
       </c>
       <c r="AD120" s="4">
-        <v>3.3374991779151781E-13</v>
+        <v>1.9321444324210621E-11</v>
       </c>
       <c r="AE120" s="4">
-        <v>3.5233422470380129E-9</v>
+        <v>9.9429438049334148E-13</v>
       </c>
       <c r="AF120" s="4">
         <v>0</v>
@@ -7148,16 +7140,16 @@
         <v>20</v>
       </c>
       <c r="AB121" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC121" s="4">
-        <v>3.6750554793778076E-11</v>
+        <v>1.4220887696723456E-11</v>
       </c>
       <c r="AD121" s="4">
-        <v>3.2569901301831017E-2</v>
+        <v>8.8468457740047926E-2</v>
       </c>
       <c r="AE121" s="4">
-        <v>2.4053032335297372E-2</v>
+        <v>1.7902114860585405E-2</v>
       </c>
       <c r="AF121" s="4">
         <v>0</v>
@@ -7177,13 +7169,13 @@
         <v>47</v>
       </c>
       <c r="AC122" s="4">
-        <v>2.8126081341704282E-13</v>
+        <v>1.6717406226372744E-11</v>
       </c>
       <c r="AD122" s="4">
-        <v>3.5900927045356664E-13</v>
+        <v>3.5626666143948877E-13</v>
       </c>
       <c r="AE122" s="4">
-        <v>3.5233428063917714E-9</v>
+        <v>1.773316481823904E-12</v>
       </c>
       <c r="AF122" s="4">
         <v>0</v>
@@ -7203,13 +7195,13 @@
         <v>47</v>
       </c>
       <c r="AC123" s="4">
-        <v>2.8854643734433291E-13</v>
+        <v>1.7840995961108804E-11</v>
       </c>
       <c r="AD123" s="4">
-        <v>3.4604813435580032E-13</v>
+        <v>3.3085670620792969E-13</v>
       </c>
       <c r="AE123" s="4">
-        <v>3.5233422818779343E-9</v>
+        <v>1.0032224292764507E-12</v>
       </c>
       <c r="AF123" s="4">
         <v>0</v>
@@ -7229,13 +7221,13 @@
         <v>47</v>
       </c>
       <c r="AC124" s="4">
-        <v>2.838895526083776E-13</v>
+        <v>1.7375261117908722E-11</v>
       </c>
       <c r="AD124" s="4">
-        <v>3.2863549591109228E-13</v>
+        <v>2.0969634978524849E-11</v>
       </c>
       <c r="AE124" s="4">
-        <v>3.523341502074971E-9</v>
+        <v>1.3412156763698339E-12</v>
       </c>
       <c r="AF124" s="4">
         <v>0</v>
@@ -7255,13 +7247,13 @@
         <v>47</v>
       </c>
       <c r="AC125" s="4">
-        <v>1.4275628176458729E-13</v>
+        <v>8.5708152589824057E-12</v>
       </c>
       <c r="AD125" s="4">
-        <v>1.6622176282655608E-13</v>
+        <v>1.5413596566047141E-13</v>
       </c>
       <c r="AE125" s="4">
-        <v>1.7573098783751425E-9</v>
+        <v>6.245919253037148E-13</v>
       </c>
       <c r="AF125" s="4">
         <v>0</v>
@@ -7281,13 +7273,13 @@
         <v>47</v>
       </c>
       <c r="AC126" s="4">
-        <v>2.9148470926716024E-13</v>
+        <v>2.0411153801494713E-11</v>
       </c>
       <c r="AD126" s="4">
-        <v>3.5111045180322502E-13</v>
+        <v>3.2235481076673237E-13</v>
       </c>
       <c r="AE126" s="4">
-        <v>3.523340163073645E-9</v>
+        <v>1.1933890709170659E-12</v>
       </c>
       <c r="AF126" s="4">
         <v>0</v>
@@ -7307,13 +7299,13 @@
         <v>47</v>
       </c>
       <c r="AC127" s="4">
-        <v>1.4693446206937637E-13</v>
+        <v>9.013151747364475E-12</v>
       </c>
       <c r="AD127" s="4">
-        <v>1.5204440064217321E-13</v>
+        <v>9.3653437856194355E-12</v>
       </c>
       <c r="AE127" s="4">
-        <v>1.7573098348817475E-9</v>
+        <v>5.8266529256716514E-13</v>
       </c>
       <c r="AF127" s="4">
         <v>0</v>
@@ -7333,13 +7325,13 @@
         <v>47</v>
       </c>
       <c r="AC128" s="4">
-        <v>2.9148470923811199E-13</v>
+        <v>2.0411153798413052E-11</v>
       </c>
       <c r="AD128" s="4">
-        <v>3.5111045182372359E-13</v>
+        <v>3.2235481077183117E-13</v>
       </c>
       <c r="AE128" s="4">
-        <v>3.5233401630736769E-9</v>
+        <v>1.1933246575068929E-12</v>
       </c>
       <c r="AF128" s="4">
         <v>0</v>
@@ -7353,13 +7345,13 @@
         <v>47</v>
       </c>
       <c r="AC129" s="4">
-        <v>1.469332253759232E-13</v>
+        <v>9.1015944775775109E-12</v>
       </c>
       <c r="AD129" s="4">
-        <v>1.5185825763533499E-13</v>
+        <v>9.2343187904487283E-12</v>
       </c>
       <c r="AE129" s="4">
-        <v>1.7573098379284299E-9</v>
+        <v>5.8245983122930355E-13</v>
       </c>
       <c r="AF129" s="4">
         <v>0</v>
@@ -7370,19 +7362,19 @@
         <v>29</v>
       </c>
       <c r="AB130" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC130" s="2">
-        <v>1.6399783145972718E-11</v>
+        <v>8.5814455541477423E-12</v>
       </c>
       <c r="AD130" s="2">
-        <v>3.2569899555921183E-2</v>
+        <v>8.8468455478436181E-2</v>
       </c>
       <c r="AE130" s="2">
-        <v>1.4890809745823226E-2</v>
+        <v>1.1121956336624633E-2</v>
       </c>
       <c r="AF130" s="2">
-        <v>9.5823835669194085E-2</v>
+        <v>9.582536307571321E-2</v>
       </c>
     </row>
     <row r="131" spans="23:32" x14ac:dyDescent="0.25">
@@ -7393,13 +7385,13 @@
         <v>47</v>
       </c>
       <c r="AC131" s="4">
-        <v>1.5762050178383011E-13</v>
+        <v>9.9507447246452861E-12</v>
       </c>
       <c r="AD131" s="4">
-        <v>1.6835813090474563E-13</v>
+        <v>1.5713396667280027E-13</v>
       </c>
       <c r="AE131" s="4">
-        <v>1.7573097518610337E-9</v>
+        <v>5.958305399983187E-13</v>
       </c>
       <c r="AF131" s="4">
         <v>0</v>
@@ -7410,16 +7402,16 @@
         <v>31</v>
       </c>
       <c r="AB132" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC132" s="4">
-        <v>3.6006334790082729E-11</v>
+        <v>1.4253078252439608E-11</v>
       </c>
       <c r="AD132" s="4">
-        <v>3.2569901399287525E-2</v>
+        <v>8.8468457872193887E-2</v>
       </c>
       <c r="AE132" s="4">
-        <v>1.9271470531731592E-2</v>
+        <v>1.7793240133828665E-2</v>
       </c>
       <c r="AF132" s="4">
         <v>0</v>
@@ -7430,13 +7422,13 @@
         <v>46</v>
       </c>
       <c r="AB133" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AD133" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AE133" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AF133" s="2" t="s">
         <v>65</v>
@@ -7489,13 +7481,13 @@
         <v>47</v>
       </c>
       <c r="AC135" s="4">
-        <v>4.0779878254195337E-13</v>
+        <v>1.3617938068152276E-11</v>
       </c>
       <c r="AD135" s="4">
-        <v>5.3279820200682749E-13</v>
+        <v>1.8419361398362543E-11</v>
       </c>
       <c r="AE135" s="4">
-        <v>4.5248886640815415E-9</v>
+        <v>-2.4437260542718283E-11</v>
       </c>
       <c r="AF135" s="4">
         <v>0</v>
@@ -7521,13 +7513,13 @@
         <v>47</v>
       </c>
       <c r="AC136" s="4">
-        <v>4.0779878239857324E-13</v>
+        <v>1.3617938068539293E-11</v>
       </c>
       <c r="AD136" s="4">
-        <v>5.3279820209188492E-13</v>
+        <v>1.8419361400000154E-11</v>
       </c>
       <c r="AE136" s="4">
-        <v>4.5248886640816184E-9</v>
+        <v>2.9394819859534552E-12</v>
       </c>
       <c r="AF136" s="4">
         <v>0</v>
@@ -7553,13 +7545,13 @@
         <v>47</v>
       </c>
       <c r="AC137" s="4">
-        <v>4.0779878266856693E-13</v>
+        <v>1.3617938068551287E-11</v>
       </c>
       <c r="AD137" s="4">
-        <v>5.3279820214896038E-13</v>
+        <v>1.8419361399438395E-11</v>
       </c>
       <c r="AE137" s="4">
-        <v>4.5248886640819303E-9</v>
+        <v>2.9394819859833113E-12</v>
       </c>
       <c r="AF137" s="4">
         <v>0</v>
@@ -7582,16 +7574,16 @@
         <v>4</v>
       </c>
       <c r="AB138" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC138" s="4">
-        <v>9.6100676596983549E-12</v>
+        <v>1.5066088350051644E-10</v>
       </c>
       <c r="AD138" s="4">
-        <v>7.1756569031858244E-2</v>
+        <v>0.19490980128633476</v>
       </c>
       <c r="AE138" s="4">
-        <v>0.17174425411692601</v>
+        <v>0.17564183005314035</v>
       </c>
       <c r="AF138" s="4">
         <v>0</v>
@@ -7614,16 +7606,16 @@
         <v>5</v>
       </c>
       <c r="AB139" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC139" s="4">
-        <v>1.902783668846528E-10</v>
+        <v>8.8839771498554193E-11</v>
       </c>
       <c r="AD139" s="4">
-        <v>9.3921976789868189E-2</v>
+        <v>0.25511690525062153</v>
       </c>
       <c r="AE139" s="4">
-        <v>0.16473182019812277</v>
+        <v>0.16862926929295158</v>
       </c>
       <c r="AF139" s="4">
         <v>0</v>
@@ -7637,13 +7629,13 @@
         <v>47</v>
       </c>
       <c r="AC140" s="4">
-        <v>2.2127341529500278E-13</v>
+        <v>7.2487750783166571E-12</v>
       </c>
       <c r="AD140" s="4">
-        <v>2.3591983063065394E-13</v>
+        <v>7.908527222194682E-12</v>
       </c>
       <c r="AE140" s="4">
-        <v>2.2636177141181245E-9</v>
+        <v>1.4666311460631741E-12</v>
       </c>
       <c r="AF140" s="4">
         <v>0</v>
@@ -7663,13 +7655,13 @@
         <v>47</v>
       </c>
       <c r="AC141" s="4">
-        <v>4.1808459064079347E-13</v>
+        <v>1.293100038725348E-11</v>
       </c>
       <c r="AD141" s="4">
-        <v>4.7349983095970328E-13</v>
+        <v>1.7775477548336072E-11</v>
       </c>
       <c r="AE141" s="4">
-        <v>4.5248885671535844E-9</v>
+        <v>2.9394021293796255E-12</v>
       </c>
       <c r="AF141" s="4">
         <v>0</v>
@@ -7689,13 +7681,13 @@
         <v>47</v>
       </c>
       <c r="AC142" s="4">
-        <v>3.7647907343110687E-13</v>
+        <v>1.294053576633958E-11</v>
       </c>
       <c r="AD142" s="4">
-        <v>5.4028040874704645E-13</v>
+        <v>1.7372272232673273E-11</v>
       </c>
       <c r="AE142" s="4">
-        <v>4.5248885627330791E-9</v>
+        <v>2.9390602851342416E-12</v>
       </c>
       <c r="AF142" s="4">
         <v>0</v>
@@ -7715,13 +7707,13 @@
         <v>47</v>
       </c>
       <c r="AC143" s="4">
-        <v>2.1998277241882574E-13</v>
+        <v>6.8526588845947056E-12</v>
       </c>
       <c r="AD143" s="4">
-        <v>2.3109073000573436E-13</v>
+        <v>7.79602283412025E-12</v>
       </c>
       <c r="AE143" s="4">
-        <v>2.2636176838284587E-9</v>
+        <v>1.4671419276221363E-12</v>
       </c>
       <c r="AF143" s="4">
         <v>0</v>
@@ -7741,13 +7733,13 @@
         <v>47</v>
       </c>
       <c r="AC144" s="4">
-        <v>3.9285950383496534E-13</v>
+        <v>1.2532169993364467E-11</v>
       </c>
       <c r="AD144" s="4">
-        <v>5.1902635194681519E-13</v>
+        <v>1.7380117831728534E-11</v>
       </c>
       <c r="AE144" s="4">
-        <v>4.5248884658041806E-9</v>
+        <v>2.9365800754621961E-12</v>
       </c>
       <c r="AF144" s="4">
         <v>0</v>
@@ -7767,13 +7759,13 @@
         <v>47</v>
       </c>
       <c r="AC145" s="4">
-        <v>3.7647907330591825E-13</v>
+        <v>1.2940535766099491E-11</v>
       </c>
       <c r="AD145" s="4">
-        <v>5.4028040902658826E-13</v>
+        <v>1.7372272232200952E-11</v>
       </c>
       <c r="AE145" s="4">
-        <v>4.5248885627333065E-9</v>
+        <v>2.930029085411924E-12</v>
       </c>
       <c r="AF145" s="4">
         <v>0</v>
@@ -7793,13 +7785,13 @@
         <v>47</v>
       </c>
       <c r="AC146" s="4">
-        <v>1.497480459158837E-13</v>
+        <v>4.4869177248369411E-12</v>
       </c>
       <c r="AD146" s="4">
-        <v>1.5435656413505798E-13</v>
+        <v>5.2789503087147985E-12</v>
       </c>
       <c r="AE146" s="4">
-        <v>1.5092007763151257E-9</v>
+        <v>9.7880181095324058E-13</v>
       </c>
       <c r="AF146" s="4">
         <v>0</v>
@@ -7819,13 +7811,13 @@
         <v>47</v>
       </c>
       <c r="AC147" s="4">
-        <v>2.1998277244890312E-13</v>
+        <v>6.8526588848202674E-12</v>
       </c>
       <c r="AD147" s="4">
-        <v>2.3109073001613551E-13</v>
+        <v>7.7960228336219771E-12</v>
       </c>
       <c r="AE147" s="4">
-        <v>2.2636176838284711E-9</v>
+        <v>1.4694427078366192E-12</v>
       </c>
       <c r="AF147" s="4">
         <v>0</v>
@@ -7845,13 +7837,13 @@
         <v>47</v>
       </c>
       <c r="AC148" s="4">
-        <v>3.9285950389216359E-13</v>
+        <v>1.2532169993416889E-11</v>
       </c>
       <c r="AD148" s="4">
-        <v>5.1902635200686333E-13</v>
+        <v>1.7380117831277514E-11</v>
       </c>
       <c r="AE148" s="4">
-        <v>4.5248884658043204E-9</v>
+        <v>2.9365800754921555E-12</v>
       </c>
       <c r="AF148" s="4">
         <v>0</v>
@@ -7871,13 +7863,13 @@
         <v>47</v>
       </c>
       <c r="AC149" s="4">
-        <v>2.0957824016913513E-13</v>
+        <v>6.8103536211239674E-12</v>
       </c>
       <c r="AD149" s="4">
-        <v>2.543842676488758E-13</v>
+        <v>8.5919532360550154E-12</v>
       </c>
       <c r="AE149" s="4">
-        <v>2.2636176520268867E-9</v>
+        <v>1.4665883311932337E-12</v>
       </c>
       <c r="AF149" s="4">
         <v>0</v>
@@ -7897,13 +7889,13 @@
         <v>47</v>
       </c>
       <c r="AC150" s="4">
-        <v>1.6183486375114451E-13</v>
+        <v>6.4596896373672877E-12</v>
       </c>
       <c r="AD150" s="4">
-        <v>1.272192241966092E-13</v>
+        <v>2.8471446646630686E-12</v>
       </c>
       <c r="AE150" s="4">
-        <v>1.5092007388018244E-9</v>
+        <v>9.7961180104250115E-13</v>
       </c>
       <c r="AF150" s="4">
         <v>0</v>
@@ -7923,13 +7915,13 @@
         <v>47</v>
       </c>
       <c r="AC151" s="4">
-        <v>2.0957824009507015E-13</v>
+        <v>6.8103536212737905E-12</v>
       </c>
       <c r="AD151" s="4">
-        <v>2.5438426756268746E-13</v>
+        <v>8.591953236475947E-12</v>
       </c>
       <c r="AE151" s="4">
-        <v>2.2636176520269074E-9</v>
+        <v>1.4665883311860605E-12</v>
       </c>
       <c r="AF151" s="4">
         <v>0</v>
@@ -7949,13 +7941,13 @@
         <v>47</v>
       </c>
       <c r="AC152" s="4">
-        <v>2.1128296136347361E-13</v>
+        <v>6.4261771623598967E-12</v>
       </c>
       <c r="AD152" s="4">
-        <v>2.4110781852402189E-13</v>
+        <v>8.1266979612891321E-12</v>
       </c>
       <c r="AE152" s="4">
-        <v>2.263617682316684E-9</v>
+        <v>1.4670667985263865E-12</v>
       </c>
       <c r="AF152" s="4">
         <v>0</v>
@@ -7975,13 +7967,13 @@
         <v>47</v>
       </c>
       <c r="AC153" s="4">
-        <v>2.2127341540216952E-13</v>
+        <v>7.2487750784690135E-12</v>
       </c>
       <c r="AD153" s="4">
-        <v>2.3591983068044795E-13</v>
+        <v>7.9085272221616465E-12</v>
       </c>
       <c r="AE153" s="4">
-        <v>2.2636177141181328E-9</v>
+        <v>1.4666311460557941E-12</v>
       </c>
       <c r="AF153" s="4">
         <v>0</v>
@@ -8001,13 +7993,13 @@
         <v>47</v>
       </c>
       <c r="AC154" s="4">
-        <v>2.2127341533594983E-13</v>
+        <v>7.2487750784100768E-12</v>
       </c>
       <c r="AD154" s="4">
-        <v>2.3591983057637021E-13</v>
+        <v>7.9085272225109235E-12</v>
       </c>
       <c r="AE154" s="4">
-        <v>2.263617714118127E-9</v>
+        <v>1.4690602634217368E-12</v>
       </c>
       <c r="AF154" s="4">
         <v>0</v>
@@ -8027,13 +8019,13 @@
         <v>47</v>
       </c>
       <c r="AC155" s="4">
-        <v>4.1808459062401398E-13</v>
+        <v>1.2931000387058575E-11</v>
       </c>
       <c r="AD155" s="4">
-        <v>4.7349983094143099E-13</v>
+        <v>1.7775477548035805E-11</v>
       </c>
       <c r="AE155" s="4">
-        <v>4.524888567153232E-9</v>
+        <v>2.9394021294102053E-12</v>
       </c>
       <c r="AF155" s="4">
         <v>0</v>
@@ -8050,19 +8042,19 @@
         <v>22</v>
       </c>
       <c r="AB156" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC156" s="2">
-        <v>1.7068417846679104E-11</v>
+        <v>8.2444668242644342E-12</v>
       </c>
       <c r="AD156" s="2">
-        <v>7.1756569188744054E-2</v>
+        <v>0.19490980086370219</v>
       </c>
       <c r="AE156" s="2">
-        <v>8.467608033491969E-2</v>
+        <v>8.0774300220639819E-2</v>
       </c>
       <c r="AF156" s="2">
-        <v>0.22258289419960875</v>
+        <v>0.22258264681507245</v>
       </c>
     </row>
     <row r="157" spans="23:32" x14ac:dyDescent="0.25">
@@ -8079,13 +8071,13 @@
         <v>47</v>
       </c>
       <c r="AC157" s="4">
-        <v>2.1128296139339751E-13</v>
+        <v>6.4261771623256204E-12</v>
       </c>
       <c r="AD157" s="4">
-        <v>2.4110781850166055E-13</v>
+        <v>8.1266979614204987E-12</v>
       </c>
       <c r="AE157" s="4">
-        <v>2.2636176823166695E-9</v>
+        <v>1.4670667985339087E-12</v>
       </c>
       <c r="AF157" s="4">
         <v>0</v>
@@ -8105,13 +8097,13 @@
         <v>47</v>
       </c>
       <c r="AC158" s="4">
-        <v>1.42640724529238E-13</v>
+        <v>4.6289506336305234E-12</v>
       </c>
       <c r="AD158" s="4">
-        <v>1.6532324499995109E-13</v>
+        <v>5.5955484943894127E-12</v>
       </c>
       <c r="AE158" s="4">
-        <v>1.5092007580344826E-9</v>
+        <v>9.7875569600352383E-13</v>
       </c>
       <c r="AF158" s="4">
         <v>0</v>
@@ -8131,13 +8123,13 @@
         <v>47</v>
       </c>
       <c r="AC159" s="4">
-        <v>2.0957824012538018E-13</v>
+        <v>6.8103536210786792E-12</v>
       </c>
       <c r="AD159" s="4">
-        <v>2.5438426757010947E-13</v>
+        <v>8.5919532362272241E-12</v>
       </c>
       <c r="AE159" s="4">
-        <v>2.2636176520269008E-9</v>
+        <v>1.4690282618137051E-12</v>
       </c>
       <c r="AF159" s="4">
         <v>0</v>
@@ -8157,13 +8149,13 @@
         <v>47</v>
       </c>
       <c r="AC160" s="4">
-        <v>3.9285950391071053E-13</v>
+        <v>1.2532169993728633E-11</v>
       </c>
       <c r="AD160" s="4">
-        <v>5.1902635181583631E-13</v>
+        <v>1.7380117830044291E-11</v>
       </c>
       <c r="AE160" s="4">
-        <v>4.5248884658041682E-9</v>
+        <v>2.9258801893253664E-12</v>
       </c>
       <c r="AF160" s="4">
         <v>0</v>
@@ -8183,13 +8175,13 @@
         <v>47</v>
       </c>
       <c r="AC161" s="4">
-        <v>1.3607357269787223E-13</v>
+        <v>4.0365323303736953E-12</v>
       </c>
       <c r="AD161" s="4">
-        <v>1.7428166005870455E-13</v>
+        <v>5.6823474422536309E-12</v>
       </c>
       <c r="AE161" s="4">
-        <v>1.5092007570826097E-9</v>
+        <v>9.7872467511219361E-13</v>
       </c>
       <c r="AF161" s="4">
         <v>0</v>
@@ -8203,13 +8195,13 @@
         <v>47</v>
       </c>
       <c r="AC162" s="4">
-        <v>2.1998277242527031E-13</v>
+        <v>6.8526588847618478E-12</v>
       </c>
       <c r="AD162" s="4">
-        <v>2.3109073006731246E-13</v>
+        <v>7.7960228338676498E-12</v>
       </c>
       <c r="AE162" s="4">
-        <v>2.2636176838284819E-9</v>
+        <v>1.4671419276146788E-12</v>
       </c>
       <c r="AF162" s="4">
         <v>0</v>
@@ -8223,13 +8215,13 @@
         <v>47</v>
       </c>
       <c r="AC163" s="4">
-        <v>2.1128296148186706E-13</v>
+        <v>6.4261771622582568E-12</v>
       </c>
       <c r="AD163" s="4">
-        <v>2.4110781855465666E-13</v>
+        <v>8.1266979609457488E-12</v>
       </c>
       <c r="AE163" s="4">
-        <v>2.2636176823166828E-9</v>
+        <v>1.4693864589205181E-12</v>
       </c>
       <c r="AF163" s="4">
         <v>0</v>
@@ -8243,13 +8235,13 @@
         <v>47</v>
       </c>
       <c r="AC164" s="4">
-        <v>4.1808459057706502E-13</v>
+        <v>1.2931000386453803E-11</v>
       </c>
       <c r="AD164" s="4">
-        <v>4.73499831213945E-13</v>
+        <v>1.7775477547880812E-11</v>
       </c>
       <c r="AE164" s="4">
-        <v>4.5248885671535141E-9</v>
+        <v>2.9306008780741604E-12</v>
       </c>
       <c r="AF164" s="4">
         <v>0</v>
@@ -8263,13 +8255,13 @@
         <v>47</v>
       </c>
       <c r="AC165" s="4">
-        <v>3.7647907324391848E-13</v>
+        <v>1.2940535766553406E-11</v>
       </c>
       <c r="AD165" s="4">
-        <v>5.4028040907090059E-13</v>
+        <v>1.7372272232777291E-11</v>
       </c>
       <c r="AE165" s="4">
-        <v>4.5248885627331212E-9</v>
+        <v>2.9390602851038686E-12</v>
       </c>
       <c r="AF165" s="4">
         <v>0</v>
@@ -8280,13 +8272,13 @@
         <v>46</v>
       </c>
       <c r="AB166" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AD166" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AE166" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AF166" s="2" t="s">
         <v>66</v>
@@ -8336,16 +8328,16 @@
         <v>1</v>
       </c>
       <c r="AB168" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC168" s="4">
-        <v>6.1773591661796081E-12</v>
+        <v>1.4531105114849283E-11</v>
       </c>
       <c r="AD168" s="4">
-        <v>7.4421003819941314</v>
+        <v>20.214710958893722</v>
       </c>
       <c r="AE168" s="4">
-        <v>3.2070458520732092</v>
+        <v>3.2070458532089421</v>
       </c>
       <c r="AF168" s="4">
         <v>0</v>
@@ -8368,16 +8360,16 @@
         <v>2</v>
       </c>
       <c r="AB169" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC169" s="4">
-        <v>7.4603231560262241E-12</v>
+        <v>1.6451167813255118E-11</v>
       </c>
       <c r="AD169" s="4">
-        <v>6.5998293972375937</v>
+        <v>17.926880425851174</v>
       </c>
       <c r="AE169" s="4">
-        <v>2.9609692234784775</v>
+        <v>2.9609692252084479</v>
       </c>
       <c r="AF169" s="4">
         <v>0</v>
@@ -8400,16 +8392,16 @@
         <v>3</v>
       </c>
       <c r="AB170" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC170" s="4">
-        <v>7.0621108132588164E-12</v>
+        <v>1.5635369192657466E-11</v>
       </c>
       <c r="AD170" s="4">
-        <v>5.7331582098607612</v>
+        <v>15.572772500109677</v>
       </c>
       <c r="AE170" s="4">
-        <v>3.6488386911188671</v>
+        <v>3.6488386932895591</v>
       </c>
       <c r="AF170" s="4">
         <v>0</v>
@@ -8432,16 +8424,16 @@
         <v>4</v>
       </c>
       <c r="AB171" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC171" s="4">
-        <v>2.3222969308715282E-10</v>
+        <v>1.1912128245026925E-11</v>
       </c>
       <c r="AD171" s="4">
-        <v>5.1020117427560683</v>
+        <v>13.85841193972613</v>
       </c>
       <c r="AE171" s="4">
-        <v>2.1677819672537906</v>
+        <v>2.1677819674089065</v>
       </c>
       <c r="AF171" s="4">
         <v>0</v>
@@ -8464,16 +8456,16 @@
         <v>5</v>
       </c>
       <c r="AB172" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC172" s="4">
-        <v>5.8419651752718979E-11</v>
+        <v>1.6837022701688262E-10</v>
       </c>
       <c r="AD172" s="4">
-        <v>3.4947402726242416</v>
+        <v>9.4926379527883213</v>
       </c>
       <c r="AE172" s="4">
-        <v>1.5949130592742757</v>
+        <v>1.5949130596507037</v>
       </c>
       <c r="AF172" s="4">
         <v>0</v>
@@ -8484,16 +8476,16 @@
         <v>6</v>
       </c>
       <c r="AB173" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC173" s="4">
-        <v>1.7285993953632587E-10</v>
+        <v>4.377835228491234E-12</v>
       </c>
       <c r="AD173" s="4">
-        <v>5.7331582183365333</v>
+        <v>15.572772524559626</v>
       </c>
       <c r="AE173" s="4">
-        <v>1.7368755169319323</v>
+        <v>1.7368755165161245</v>
       </c>
       <c r="AF173" s="4">
         <v>0</v>
@@ -8510,16 +8502,16 @@
         <v>7</v>
       </c>
       <c r="AB174" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC174" s="4">
-        <v>1.3600429580477162E-10</v>
+        <v>3.1731227612235372E-10</v>
       </c>
       <c r="AD174" s="4">
-        <v>5.102011756009591</v>
+        <v>13.858411972801026</v>
       </c>
       <c r="AE174" s="4">
-        <v>1.2665210152863229</v>
+        <v>1.2665210153903934</v>
       </c>
       <c r="AF174" s="4">
         <v>0</v>
@@ -8536,16 +8528,16 @@
         <v>8</v>
       </c>
       <c r="AB175" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC175" s="4">
-        <v>1.1905269599869034E-10</v>
+        <v>2.1197720314827078E-10</v>
       </c>
       <c r="AD175" s="4">
-        <v>3.4947402719430771</v>
+        <v>9.4926379522613598</v>
       </c>
       <c r="AE175" s="4">
-        <v>1.1164236331073774</v>
+        <v>1.1164236328218498</v>
       </c>
       <c r="AF175" s="4">
         <v>0</v>
@@ -8562,16 +8554,16 @@
         <v>9</v>
       </c>
       <c r="AB176" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC176" s="4">
-        <v>6.1925550764406124E-11</v>
+        <v>1.3736607820848502E-10</v>
       </c>
       <c r="AD176" s="4">
-        <v>5.1020117197094583</v>
+        <v>13.858411918842545</v>
       </c>
       <c r="AE176" s="4">
-        <v>0.96604602494237102</v>
+        <v>0.96604602528346439</v>
       </c>
       <c r="AF176" s="4">
         <v>0</v>
@@ -8588,16 +8580,16 @@
         <v>10</v>
       </c>
       <c r="AB177" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC177" s="4">
-        <v>5.6699189398286004E-11</v>
+        <v>1.4052335397818999E-10</v>
       </c>
       <c r="AD177" s="4">
-        <v>3.4947402709340025</v>
+        <v>9.4926379504265466</v>
       </c>
       <c r="AE177" s="4">
-        <v>0.70307711859199207</v>
+        <v>0.70307711851122734</v>
       </c>
       <c r="AF177" s="4">
         <v>0</v>
@@ -8614,16 +8606,16 @@
         <v>11</v>
       </c>
       <c r="AB178" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC178" s="4">
-        <v>2.0149707505283913E-10</v>
+        <v>1.3780308797140696E-11</v>
       </c>
       <c r="AD178" s="4">
-        <v>3.4947402726525785</v>
+        <v>9.4926378795967832</v>
       </c>
       <c r="AE178" s="4">
-        <v>1.0725551430550428</v>
+        <v>1.0725551429621543</v>
       </c>
       <c r="AF178" s="4">
         <v>0</v>
@@ -8640,16 +8632,16 @@
         <v>12</v>
       </c>
       <c r="AB179" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC179" s="4">
-        <v>6.0486116981888587E-11</v>
+        <v>1.3914587266294367E-10</v>
       </c>
       <c r="AD179" s="4">
-        <v>5.7331581843344406</v>
+        <v>15.572772467349154</v>
       </c>
       <c r="AE179" s="4">
-        <v>1.1018431168152478</v>
+        <v>1.1018431162232125</v>
       </c>
       <c r="AF179" s="4">
         <v>0</v>
@@ -8666,16 +8658,16 @@
         <v>13</v>
       </c>
       <c r="AB180" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC180" s="4">
-        <v>6.1539838014849131E-11</v>
+        <v>1.3343874225290796E-10</v>
       </c>
       <c r="AD180" s="4">
-        <v>5.1020117151597661</v>
+        <v>13.858411903332435</v>
       </c>
       <c r="AE180" s="4">
-        <v>0.94235183951359847</v>
+        <v>0.94235183929729938</v>
       </c>
       <c r="AF180" s="4">
         <v>0</v>
@@ -8692,16 +8684,16 @@
         <v>14</v>
       </c>
       <c r="AB181" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC181" s="4">
-        <v>5.5459077168584099E-11</v>
+        <v>1.3011478351673508E-10</v>
       </c>
       <c r="AD181" s="4">
-        <v>3.4947402707631512</v>
+        <v>9.4926379498610576</v>
       </c>
       <c r="AE181" s="4">
-        <v>0.7358463741521698</v>
+        <v>0.73584637381250928</v>
       </c>
       <c r="AF181" s="4">
         <v>0</v>
@@ -8718,16 +8710,16 @@
         <v>15</v>
       </c>
       <c r="AB182" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC182" s="4">
-        <v>5.745360545218477E-11</v>
+        <v>1.4090855650086624E-10</v>
       </c>
       <c r="AD182" s="4">
-        <v>3.4947402707778279</v>
+        <v>9.4926379493884632</v>
       </c>
       <c r="AE182" s="4">
-        <v>0.59546498194038611</v>
+        <v>0.59546498238659851</v>
       </c>
       <c r="AF182" s="4">
         <v>0</v>
@@ -8744,16 +8736,16 @@
         <v>16</v>
       </c>
       <c r="AB183" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC183" s="2">
-        <v>1.7400963625547367E-10</v>
+        <v>7.0385256623743237E-10</v>
       </c>
       <c r="AD183" s="2">
-        <v>3.4947402724400289</v>
+        <v>9.492637951836139</v>
       </c>
       <c r="AE183" s="2">
-        <v>0.49226758238725093</v>
+        <v>0.49226758279925265</v>
       </c>
       <c r="AF183" s="2">
         <v>14.175909555537293</v>
@@ -8770,16 +8762,16 @@
         <v>17</v>
       </c>
       <c r="AB184" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC184" s="4">
-        <v>5.8846345036857319E-11</v>
+        <v>1.4511331182451082E-10</v>
       </c>
       <c r="AD184" s="4">
-        <v>3.4947402709566959</v>
+        <v>9.4926379497052213</v>
       </c>
       <c r="AE184" s="4">
-        <v>0.57346347532245712</v>
+        <v>0.57346347559496258</v>
       </c>
       <c r="AF184" s="4">
         <v>0</v>
@@ -8796,16 +8788,16 @@
         <v>18</v>
       </c>
       <c r="AB185" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC185" s="4">
-        <v>6.165175580935213E-11</v>
+        <v>1.5595556534895476E-10</v>
       </c>
       <c r="AD185" s="4">
-        <v>3.4947402706216475</v>
+        <v>9.4926379512060102</v>
       </c>
       <c r="AE185" s="4">
-        <v>0.78722370408347297</v>
+        <v>0.78722370359179328</v>
       </c>
       <c r="AF185" s="4">
         <v>0</v>
@@ -8822,16 +8814,16 @@
         <v>19</v>
       </c>
       <c r="AB186" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC186" s="4">
-        <v>1.7732183553177701E-10</v>
+        <v>4.0036938727177378E-10</v>
       </c>
       <c r="AD186" s="4">
-        <v>6.5998294020939632</v>
+        <v>17.926880453494249</v>
       </c>
       <c r="AE186" s="4">
-        <v>1.5647323489765257</v>
+        <v>1.5647323481666204</v>
       </c>
       <c r="AF186" s="4">
         <v>0</v>
@@ -8848,16 +8840,16 @@
         <v>20</v>
       </c>
       <c r="AB187" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC187" s="4">
-        <v>1.5338666812200996E-10</v>
+        <v>3.5817724045766105E-10</v>
       </c>
       <c r="AD187" s="4">
-        <v>5.7331582155250613</v>
+        <v>15.572772519294567</v>
       </c>
       <c r="AE187" s="4">
-        <v>1.6616042969292739</v>
+        <v>1.6616042962176609</v>
       </c>
       <c r="AF187" s="4">
         <v>0</v>
@@ -8874,16 +8866,16 @@
         <v>21</v>
       </c>
       <c r="AB188" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC188" s="4">
-        <v>1.1689140314326692E-10</v>
+        <v>2.7722566092210247E-10</v>
       </c>
       <c r="AD188" s="4">
-        <v>5.1020117516467058</v>
+        <v>13.858411965072785</v>
       </c>
       <c r="AE188" s="4">
-        <v>1.3748966417902173</v>
+        <v>1.374896641046113</v>
       </c>
       <c r="AF188" s="4">
         <v>0</v>
@@ -8900,16 +8892,16 @@
         <v>22</v>
       </c>
       <c r="AB189" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC189" s="4">
-        <v>8.6018023510144598E-11</v>
+        <v>1.532234792790693E-10</v>
       </c>
       <c r="AD189" s="4">
-        <v>3.4947402713248068</v>
+        <v>9.492637951319713</v>
       </c>
       <c r="AE189" s="4">
-        <v>0.9247754988410084</v>
+        <v>0.92477549851442642</v>
       </c>
       <c r="AF189" s="4">
         <v>0</v>
@@ -8926,16 +8918,16 @@
         <v>23</v>
       </c>
       <c r="AB190" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC190" s="4">
-        <v>5.8862992207546762E-11</v>
+        <v>1.5208303942809027E-10</v>
       </c>
       <c r="AD190" s="4">
-        <v>3.4947402702689794</v>
+        <v>9.4926379509224699</v>
       </c>
       <c r="AE190" s="4">
-        <v>0.82853057866010371</v>
+        <v>0.82853057840559652</v>
       </c>
       <c r="AF190" s="4">
         <v>0</v>
@@ -8952,16 +8944,16 @@
         <v>24</v>
       </c>
       <c r="AB191" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC191" s="4">
-        <v>5.366716252966105E-11</v>
+        <v>1.2865173238748977E-10</v>
       </c>
       <c r="AD191" s="4">
-        <v>5.1020117139808017</v>
+        <v>13.858411881456023</v>
       </c>
       <c r="AE191" s="4">
-        <v>0.7266747181418558</v>
+        <v>0.72667471846733211</v>
       </c>
       <c r="AF191" s="4">
         <v>0</v>
@@ -8978,16 +8970,16 @@
         <v>25</v>
       </c>
       <c r="AB192" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC192" s="4">
-        <v>5.7223150621048968E-11</v>
+        <v>1.3589808794176897E-10</v>
       </c>
       <c r="AD192" s="4">
-        <v>3.4947402702290846</v>
+        <v>9.4926379497046707</v>
       </c>
       <c r="AE192" s="4">
-        <v>0.58625398771132264</v>
+        <v>0.58625398761611369</v>
       </c>
       <c r="AF192" s="4">
         <v>0</v>
@@ -9004,16 +8996,16 @@
         <v>26</v>
       </c>
       <c r="AB193" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC193" s="4">
-        <v>5.6865841217514848E-11</v>
+        <v>1.4635205180025009E-10</v>
       </c>
       <c r="AD193" s="4">
-        <v>3.4947402709202331</v>
+        <v>9.4926379504976577</v>
       </c>
       <c r="AE193" s="4">
-        <v>0.71613866076814614</v>
+        <v>0.71613866100180967</v>
       </c>
       <c r="AF193" s="4">
         <v>0</v>
@@ -9030,16 +9022,16 @@
         <v>27</v>
       </c>
       <c r="AB194" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC194" s="4">
-        <v>5.9341239278620406E-11</v>
+        <v>1.4801986519262409E-10</v>
       </c>
       <c r="AD194" s="4">
-        <v>3.4947402702420876</v>
+        <v>9.4926379498389046</v>
       </c>
       <c r="AE194" s="4">
-        <v>0.64471301557045368</v>
+        <v>0.64471301554670224</v>
       </c>
       <c r="AF194" s="4">
         <v>0</v>
@@ -9050,16 +9042,16 @@
         <v>28</v>
       </c>
       <c r="AB195" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC195" s="4">
-        <v>6.2315479961736253E-11</v>
+        <v>1.4073137390133314E-10</v>
       </c>
       <c r="AD195" s="4">
-        <v>5.1020117412367751</v>
+        <v>13.858411953111304</v>
       </c>
       <c r="AE195" s="4">
-        <v>0.91023486755376015</v>
+        <v>0.91023486747891924</v>
       </c>
       <c r="AF195" s="4">
         <v>0</v>
@@ -9070,16 +9062,16 @@
         <v>29</v>
       </c>
       <c r="AB196" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC196" s="4">
-        <v>5.8081804313721278E-11</v>
+        <v>1.4639170839524388E-10</v>
       </c>
       <c r="AD196" s="4">
-        <v>3.4947402702828474</v>
+        <v>9.4926379508289589</v>
       </c>
       <c r="AE196" s="4">
-        <v>0.81109809015840506</v>
+        <v>0.81109809013935341</v>
       </c>
       <c r="AF196" s="4">
         <v>0</v>
@@ -9090,16 +9082,16 @@
         <v>30</v>
       </c>
       <c r="AB197" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC197" s="4">
-        <v>1.5527863194581604E-10</v>
+        <v>3.9251097962247161E-12</v>
       </c>
       <c r="AD197" s="4">
-        <v>5.1020117570273529</v>
+        <v>13.858411974339919</v>
       </c>
       <c r="AE197" s="4">
-        <v>1.3087555671701236</v>
+        <v>1.3087555667571764</v>
       </c>
       <c r="AF197" s="4">
         <v>0</v>
@@ -9110,16 +9102,16 @@
         <v>31</v>
       </c>
       <c r="AB198" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC198" s="4">
-        <v>1.3820267853996474E-10</v>
+        <v>1.2403235571187358E-11</v>
       </c>
       <c r="AD198" s="4">
-        <v>3.4947402723537544</v>
+        <v>9.4926379525614131</v>
       </c>
       <c r="AE198" s="4">
-        <v>1.0441046782396344</v>
+        <v>1.0441046785093409</v>
       </c>
       <c r="AF198" s="4">
         <v>0</v>
@@ -9130,13 +9122,13 @@
         <v>46</v>
       </c>
       <c r="AB199" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AD199" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AE199" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AF199" s="2" t="s">
         <v>67</v>
@@ -9186,16 +9178,16 @@
         <v>1</v>
       </c>
       <c r="AB201" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC201" s="4">
-        <v>1.6416819922269559E-10</v>
+        <v>6.1011087458153051E-12</v>
       </c>
       <c r="AD201" s="4">
-        <v>17.452954742375741</v>
+        <v>47.406836457859036</v>
       </c>
       <c r="AE201" s="4">
-        <v>30.943510246060971</v>
+        <v>14.420304596355445</v>
       </c>
       <c r="AF201" s="4">
         <v>0</v>
@@ -9221,13 +9213,13 @@
         <v>47</v>
       </c>
       <c r="AC202" s="4">
-        <v>1.7819393787373167E-12</v>
+        <v>9.5958030926173308E-12</v>
       </c>
       <c r="AD202" s="4">
-        <v>2.2955479674977181E-12</v>
+        <v>1.1844302968996538E-11</v>
       </c>
       <c r="AE202" s="4">
-        <v>4.3119272273433071E-9</v>
+        <v>-2.4315252762865468E-10</v>
       </c>
       <c r="AF202" s="4">
         <v>0</v>
@@ -9250,16 +9242,16 @@
         <v>3</v>
       </c>
       <c r="AB203" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC203" s="4">
-        <v>1.3969812181565291E-11</v>
+        <v>5.9198466441427512E-12</v>
       </c>
       <c r="AD203" s="4">
-        <v>22.437187659390606</v>
+        <v>60.945329962716961</v>
       </c>
       <c r="AE203" s="4">
-        <v>38.580054840805964</v>
+        <v>22.056859641720585</v>
       </c>
       <c r="AF203" s="4">
         <v>0</v>
@@ -9285,13 +9277,13 @@
         <v>47</v>
       </c>
       <c r="AC204" s="4">
-        <v>1.7819393787101878E-12</v>
+        <v>9.5958029518013086E-12</v>
       </c>
       <c r="AD204" s="4">
-        <v>2.2955479674780726E-12</v>
+        <v>1.1844302969292772E-11</v>
       </c>
       <c r="AE204" s="4">
-        <v>4.3119272273141597E-9</v>
+        <v>2.9214489571982516E-11</v>
       </c>
       <c r="AF204" s="4">
         <v>0</v>
@@ -9317,13 +9309,13 @@
         <v>47</v>
       </c>
       <c r="AC205" s="4">
-        <v>1.7819393787308156E-12</v>
+        <v>9.5958031024879736E-12</v>
       </c>
       <c r="AD205" s="4">
-        <v>2.2955479675059641E-12</v>
+        <v>1.1844302969268887E-11</v>
       </c>
       <c r="AE205" s="4">
-        <v>4.3119272273317191E-9</v>
+        <v>2.9214489572196756E-11</v>
       </c>
       <c r="AF205" s="4">
         <v>0</v>
@@ -9334,19 +9326,19 @@
         <v>6</v>
       </c>
       <c r="AB206" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC206" s="2">
-        <v>3.206125918176185E-11</v>
+        <v>1.1808607733885188E-10</v>
       </c>
       <c r="AD206" s="2">
-        <v>17.452954751548425</v>
+        <v>47.40683648306463</v>
       </c>
       <c r="AE206" s="2">
-        <v>13.991645063765963</v>
+        <v>30.514829253634399</v>
       </c>
       <c r="AF206" s="2">
-        <v>47.042442677381963</v>
+        <v>47.042138219561956</v>
       </c>
     </row>
     <row r="207" spans="23:32" x14ac:dyDescent="0.25">
@@ -9363,13 +9355,13 @@
         <v>47</v>
       </c>
       <c r="AC207" s="4">
-        <v>9.5655084188197201E-13</v>
+        <v>5.0594627798821079E-12</v>
       </c>
       <c r="AD207" s="4">
-        <v>1.0487580456694552E-12</v>
+        <v>5.5817979939808773E-12</v>
       </c>
       <c r="AE207" s="4">
-        <v>2.3358708555897623E-9</v>
+        <v>1.4593346306535251E-11</v>
       </c>
       <c r="AF207" s="4">
         <v>0</v>
@@ -9389,13 +9381,13 @@
         <v>47</v>
       </c>
       <c r="AC208" s="4">
-        <v>1.7551944784787675E-12</v>
+        <v>9.9048980927349693E-12</v>
       </c>
       <c r="AD208" s="4">
-        <v>2.2762032228959423E-12</v>
+        <v>1.1397264474925495E-11</v>
       </c>
       <c r="AE208" s="4">
-        <v>4.3119272244860292E-9</v>
+        <v>2.9214488744782051E-11</v>
       </c>
       <c r="AF208" s="4">
         <v>0</v>
@@ -9415,13 +9407,13 @@
         <v>47</v>
       </c>
       <c r="AC209" s="4">
-        <v>1.743231197010572E-12</v>
+        <v>9.7109446643561966E-12</v>
       </c>
       <c r="AD209" s="4">
-        <v>2.2366849196431543E-12</v>
+        <v>1.1579357162805363E-11</v>
       </c>
       <c r="AE209" s="4">
-        <v>4.3119272221905244E-9</v>
+        <v>2.9214489672410928E-11</v>
       </c>
       <c r="AF209" s="4">
         <v>0</v>
@@ -9441,13 +9433,13 @@
         <v>47</v>
       </c>
       <c r="AC210" s="4">
-        <v>6.5064650378463631E-13</v>
+        <v>3.3627178998659164E-12</v>
       </c>
       <c r="AD210" s="4">
-        <v>6.6664770526473609E-13</v>
+        <v>3.6874835985714304E-12</v>
       </c>
       <c r="AE210" s="4">
-        <v>1.5776330727050422E-9</v>
+        <v>9.7320165121518252E-12</v>
       </c>
       <c r="AF210" s="4">
         <v>0</v>
@@ -9467,13 +9459,13 @@
         <v>47</v>
       </c>
       <c r="AC211" s="4">
-        <v>1.8074023155419558E-12</v>
+        <v>9.4097509038393633E-12</v>
       </c>
       <c r="AD211" s="4">
-        <v>2.1823171123111058E-12</v>
+        <v>1.198248046706565E-11</v>
       </c>
       <c r="AE211" s="4">
-        <v>4.3119272251196256E-9</v>
+        <v>2.9214490502435801E-11</v>
       </c>
       <c r="AF211" s="4">
         <v>0</v>
@@ -9493,13 +9485,13 @@
         <v>47</v>
       </c>
       <c r="AC212" s="4">
-        <v>1.743231196942782E-12</v>
+        <v>9.7109445866427849E-12</v>
       </c>
       <c r="AD212" s="4">
-        <v>2.2366849197466811E-12</v>
+        <v>1.1579357162879809E-11</v>
       </c>
       <c r="AE212" s="4">
-        <v>4.3119272222174277E-9</v>
+        <v>2.9159229575896242E-11</v>
       </c>
       <c r="AF212" s="4">
         <v>0</v>
@@ -9519,13 +9511,13 @@
         <v>47</v>
       </c>
       <c r="AC213" s="4">
-        <v>9.4837597670021577E-13</v>
+        <v>4.999473788977982E-12</v>
       </c>
       <c r="AD213" s="4">
-        <v>1.04864183779406E-12</v>
+        <v>5.5172971522018864E-12</v>
       </c>
       <c r="AE213" s="4">
-        <v>2.3358708553869091E-9</v>
+        <v>1.4593346394450488E-11</v>
       </c>
       <c r="AF213" s="4">
         <v>0</v>
@@ -9545,13 +9537,13 @@
         <v>47</v>
       </c>
       <c r="AC214" s="4">
-        <v>9.4837597670950863E-13</v>
+        <v>4.9994737520154163E-12</v>
       </c>
       <c r="AD214" s="4">
-        <v>1.048641837784108E-12</v>
+        <v>5.5172971683178463E-12</v>
       </c>
       <c r="AE214" s="4">
-        <v>2.3358708553895445E-9</v>
+        <v>1.4607208104904188E-11</v>
       </c>
       <c r="AF214" s="4">
         <v>0</v>
@@ -9571,13 +9563,13 @@
         <v>47</v>
       </c>
       <c r="AC215" s="4">
-        <v>9.2991564769821975E-13</v>
+        <v>5.0203809072492002E-12</v>
       </c>
       <c r="AD215" s="4">
-        <v>1.0990893045395437E-12</v>
+        <v>5.3989962836588089E-12</v>
       </c>
       <c r="AE215" s="4">
-        <v>2.3358708551734663E-9</v>
+        <v>1.4607208360437443E-11</v>
       </c>
       <c r="AF215" s="4">
         <v>0</v>
@@ -9597,13 +9589,13 @@
         <v>47</v>
       </c>
       <c r="AC216" s="4">
-        <v>6.7040907618363774E-13</v>
+        <v>3.1456324979014097E-12</v>
       </c>
       <c r="AD216" s="4">
-        <v>2.1243062678878301E-13</v>
+        <v>3.965441167088324E-12</v>
       </c>
       <c r="AE216" s="4">
-        <v>1.5776330726046128E-9</v>
+        <v>9.7320167747315219E-12</v>
       </c>
       <c r="AF216" s="4">
         <v>0</v>
@@ -9623,13 +9615,13 @@
         <v>47</v>
       </c>
       <c r="AC217" s="4">
-        <v>6.295908471791235E-13</v>
+        <v>3.4094606743881681E-12</v>
       </c>
       <c r="AD217" s="4">
-        <v>7.4139485101920719E-13</v>
+        <v>3.4561010116834592E-12</v>
       </c>
       <c r="AE217" s="4">
-        <v>1.577633072656411E-9</v>
+        <v>9.7320169290625378E-12</v>
       </c>
       <c r="AF217" s="4">
         <v>0</v>
@@ -9649,13 +9641,13 @@
         <v>47</v>
       </c>
       <c r="AC218" s="4">
-        <v>9.5670018905555783E-13</v>
+        <v>4.9504240477820934E-12</v>
       </c>
       <c r="AD218" s="4">
-        <v>1.0388979126944734E-12</v>
+        <v>5.5871882186834791E-12</v>
       </c>
       <c r="AE218" s="4">
-        <v>2.3358708553724793E-9</v>
+        <v>1.4593346754998458E-11</v>
       </c>
       <c r="AF218" s="4">
         <v>0</v>
@@ -9675,13 +9667,13 @@
         <v>47</v>
       </c>
       <c r="AC219" s="4">
-        <v>1.8074023155426149E-12</v>
+        <v>9.409750777544807E-12</v>
       </c>
       <c r="AD219" s="4">
-        <v>2.1823171123572987E-12</v>
+        <v>1.1982480573291977E-11</v>
       </c>
       <c r="AE219" s="4">
-        <v>4.3119272250918654E-9</v>
+        <v>2.9159231804855998E-11</v>
       </c>
       <c r="AF219" s="4">
         <v>0</v>
@@ -9701,13 +9693,13 @@
         <v>47</v>
       </c>
       <c r="AC220" s="4">
-        <v>1.7551944784770485E-12</v>
+        <v>9.9048979635949116E-12</v>
       </c>
       <c r="AD220" s="4">
-        <v>2.2762032229257466E-12</v>
+        <v>1.1397264594103092E-11</v>
       </c>
       <c r="AE220" s="4">
-        <v>4.3119272244824608E-9</v>
+        <v>2.9159227077414159E-11</v>
       </c>
       <c r="AF220" s="4">
         <v>0</v>
@@ -9727,13 +9719,13 @@
         <v>47</v>
       </c>
       <c r="AC221" s="4">
-        <v>1.7551944784580234E-12</v>
+        <v>9.9048979776960663E-12</v>
       </c>
       <c r="AD221" s="4">
-        <v>2.2762032228666291E-12</v>
+        <v>1.1397264565635362E-11</v>
       </c>
       <c r="AE221" s="4">
-        <v>4.3119272244872146E-9</v>
+        <v>2.9214488744567811E-11</v>
       </c>
       <c r="AF221" s="4">
         <v>0</v>
@@ -9753,13 +9745,13 @@
         <v>47</v>
       </c>
       <c r="AC222" s="4">
-        <v>9.5655084185849429E-13</v>
+        <v>5.0594626593212057E-12</v>
       </c>
       <c r="AD222" s="4">
-        <v>1.0487580456764216E-12</v>
+        <v>5.5817978910583092E-12</v>
       </c>
       <c r="AE222" s="4">
-        <v>2.3358708555920495E-9</v>
+        <v>1.4607208054753882E-11</v>
       </c>
       <c r="AF222" s="4">
         <v>0</v>
@@ -9779,13 +9771,13 @@
         <v>47</v>
       </c>
       <c r="AC223" s="4">
-        <v>1.7432311970179262E-12</v>
+        <v>9.7109444001116956E-12</v>
       </c>
       <c r="AD223" s="4">
-        <v>2.2366849196862452E-12</v>
+        <v>1.1579357162865954E-11</v>
       </c>
       <c r="AE223" s="4">
-        <v>4.3119272221892795E-9</v>
+        <v>2.9214489672625581E-11</v>
       </c>
       <c r="AF223" s="4">
         <v>0</v>
@@ -9805,13 +9797,13 @@
         <v>47</v>
       </c>
       <c r="AC224" s="4">
-        <v>9.2991564771136417E-13</v>
+        <v>5.0203809239390167E-12</v>
       </c>
       <c r="AD224" s="4">
-        <v>1.099089304473408E-12</v>
+        <v>5.3989962837934842E-12</v>
       </c>
       <c r="AE224" s="4">
-        <v>2.3358708551713483E-9</v>
+        <v>1.4593346841822437E-11</v>
       </c>
       <c r="AF224" s="4">
         <v>0</v>
@@ -9831,13 +9823,13 @@
         <v>47</v>
       </c>
       <c r="AC225" s="4">
-        <v>6.2826359095439352E-13</v>
+        <v>3.4010058856471481E-12</v>
       </c>
       <c r="AD225" s="4">
-        <v>7.4054368258050941E-13</v>
+        <v>3.4564775448691772E-12</v>
       </c>
       <c r="AE225" s="4">
-        <v>1.5776330726534576E-9</v>
+        <v>9.7320163588222147E-12</v>
       </c>
       <c r="AF225" s="4">
         <v>0</v>
@@ -9857,13 +9849,13 @@
         <v>47</v>
       </c>
       <c r="AC226" s="4">
-        <v>9.5670018906539999E-13</v>
+        <v>4.9504240723361227E-12</v>
       </c>
       <c r="AD226" s="4">
-        <v>1.0388979127258352E-12</v>
+        <v>5.5871880976563573E-12</v>
       </c>
       <c r="AE226" s="4">
-        <v>2.3358708553753559E-9</v>
+        <v>1.4607208310880639E-11</v>
       </c>
       <c r="AF226" s="4">
         <v>0</v>
@@ -9883,13 +9875,13 @@
         <v>47</v>
       </c>
       <c r="AC227" s="4">
-        <v>9.2991564771100227E-13</v>
+        <v>5.020381049400447E-12</v>
       </c>
       <c r="AD227" s="4">
-        <v>1.0990893044866171E-12</v>
+        <v>5.3989962837088016E-12</v>
       </c>
       <c r="AE227" s="4">
-        <v>2.3358708551709215E-9</v>
+        <v>1.459334684187579E-11</v>
       </c>
       <c r="AF227" s="4">
         <v>0</v>
@@ -9903,13 +9895,13 @@
         <v>47</v>
       </c>
       <c r="AC228" s="4">
-        <v>9.5670018905594557E-13</v>
+        <v>4.9504240653774141E-12</v>
       </c>
       <c r="AD228" s="4">
-        <v>1.0388979127034755E-12</v>
+        <v>5.5871881661410183E-12</v>
       </c>
       <c r="AE228" s="4">
-        <v>2.3358708553739922E-9</v>
+        <v>1.4593346754945105E-11</v>
       </c>
       <c r="AF228" s="4">
         <v>0</v>
@@ -9923,13 +9915,13 @@
         <v>47</v>
       </c>
       <c r="AC229" s="4">
-        <v>9.483759766988716E-13</v>
+        <v>4.9994737131348256E-12</v>
       </c>
       <c r="AD229" s="4">
-        <v>1.0486418377929032E-12</v>
+        <v>5.5172972102686213E-12</v>
       </c>
       <c r="AE229" s="4">
-        <v>2.3358708553866531E-9</v>
+        <v>1.4593346394503841E-11</v>
       </c>
       <c r="AF229" s="4">
         <v>0</v>
@@ -9943,13 +9935,13 @@
         <v>47</v>
       </c>
       <c r="AC230" s="4">
-        <v>1.8074023155168172E-12</v>
+        <v>9.4097510232327518E-12</v>
       </c>
       <c r="AD230" s="4">
-        <v>2.1823171122731331E-12</v>
+        <v>1.1982480470444786E-11</v>
       </c>
       <c r="AE230" s="4">
-        <v>4.3119272251312045E-9</v>
+        <v>2.9214490502221561E-11</v>
       </c>
       <c r="AF230" s="4">
         <v>0</v>
@@ -9963,13 +9955,13 @@
         <v>47</v>
       </c>
       <c r="AC231" s="4">
-        <v>9.5655084188450525E-13</v>
+        <v>5.0594628009501913E-12</v>
       </c>
       <c r="AD231" s="4">
-        <v>1.04875804566846E-12</v>
+        <v>5.581797924772123E-12</v>
       </c>
       <c r="AE231" s="4">
-        <v>2.3358708555883954E-9</v>
+        <v>1.4593346306588811E-11</v>
       </c>
       <c r="AF231" s="4">
         <v>0</v>
@@ -9980,13 +9972,13 @@
         <v>46</v>
       </c>
       <c r="AB232" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AD232" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AE232" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AF232" s="2" t="s">
         <v>68</v>
